--- a/Grade/Grade_code.xlsx
+++ b/Grade/Grade_code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF6CB1-E8F4-49A5-84CE-72573939A9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F54A653-4F24-445A-8DDF-0A351B7663C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77AA2402-4045-4207-9CD2-03A129DC7A0C}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Code" sheetId="1" r:id="rId1"/>
     <sheet name="Grade Name" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grade Name'!$A$1:$E$183</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="211">
   <si>
     <t>: { validName: '</t>
   </si>
@@ -280,14 +283,392 @@
     <t xml:space="preserve"> }</t>
   </si>
   <si>
-    <t>&lt;ending please make sure to remove , comma</t>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>DEO</t>
+  </si>
+  <si>
+    <t>PCMO</t>
+  </si>
+  <si>
+    <t>SPECIALITY</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MIRACLE 3-1 KG GRES</t>
+  </si>
+  <si>
+    <t>SERVOGREASE MP 3 - 182 KG DRM</t>
+  </si>
+  <si>
+    <t>SERVOGEM EP 2-182 KG DRM</t>
+  </si>
+  <si>
+    <t>SERVO FLT CF4 15W-40-15 L</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-20-210 L</t>
+  </si>
+  <si>
+    <t>HY.SERVO ENGINE OIL 5W-30-4x3.5L</t>
+  </si>
+  <si>
+    <t>HY.SERVO PRM.EO SM 5W-30-4X3 L</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 4 X 3 L</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-4x3.5L HDPE</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-4 X 3 L</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-20-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>HYUNDAI S.GEAR OIL 75W-85-4X2.5L-HDPE</t>
+  </si>
+  <si>
+    <t>MGO 20W-40 - 20 X 1 L</t>
+  </si>
+  <si>
+    <t>MGGO 80W-90 - 4 X 2.1 L</t>
+  </si>
+  <si>
+    <t>HY SERVO PETROL EO SN PLUS-4 X 3.5 L LUBE</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO SUPERIOR 0W30-4 X 4 L</t>
+  </si>
+  <si>
+    <t>SERVO HONDA SCOOTONXT-20 X 0.8 L</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO CRDi PREM.ENG.OIL 4X5L-HDP</t>
+  </si>
+  <si>
+    <t>S FLEET SUPREME CI4PLUS 15W-40-210 L LUBE</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</t>
+  </si>
+  <si>
+    <t>SERVO FLEET SUPREME CI4 PLUS 15W-40-15 L LUBE</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO COOLANT 50-20 X 1 L</t>
+  </si>
+  <si>
+    <t>HYUNDAI SERVO BRAKE OIL - 20x1/2L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO FLEET CF4 15W-40 - 20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO FLEET CF4 15W-40 - 4 X 5 L</t>
+  </si>
+  <si>
+    <t>SERVO FLT CF4 15W-40-4 X 3 L</t>
+  </si>
+  <si>
+    <t>MGO 5W-30-210 L BRL</t>
+  </si>
+  <si>
+    <t>MGDO 15W-40 - 4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>HY SERVO PETROL EO SN PLUS-4 X 4 L LUBE</t>
+  </si>
+  <si>
+    <t>HY SERVO PETROL EO SN PLUS-210 L</t>
+  </si>
+  <si>
+    <t>SERVO HONDA JOSH-20 X 0.9 L</t>
+  </si>
+  <si>
+    <t>SERVO FLT CF4 15W-40 - 210 L</t>
+  </si>
+  <si>
+    <t>ECSTAR PETROL 0W-20-1 L</t>
+  </si>
+  <si>
+    <t>HY.SERVO SYNTH PLUS 5W-30-4x3.5L HDPE</t>
+  </si>
+  <si>
+    <t>S FLEET SUPREME CI4PLUS 15W-40-20 X 1 L LUBE</t>
+  </si>
+  <si>
+    <t>SERVO HONDA JOSH-20 X 1 L</t>
+  </si>
+  <si>
+    <t>HY SERVO SYNTH 0W-30 SP/C3-4 X 3.5 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPERIOR EO 0W20 SN PLUS-50 L</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>GEAR</t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-20L BUC</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-40X1/2L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-10 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-20 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO 4T 20W-50-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME (JFC) - 200X60ML - POU</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-4X5L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO SCOOTOMATIC 4ST 10W-30-20 X 0.8 L</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO 4T - 20 X 1 L HDPE PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-15L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF 4 15W 40-20L BUC</t>
+  </si>
+  <si>
+    <t>SERVO TRANSFLUID A-4X5L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-10L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-7.5L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90 - 4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME(JFC)-300x40ML - POU</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-10L BUC</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40 - 20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO TRANSFLUID A-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40 - 20x1L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40 - 4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 20 X 1 L HDPE</t>
+  </si>
+  <si>
+    <t>TRU4 KRAAFT-10 X 0.9 L</t>
+  </si>
+  <si>
+    <t>TRU4 KRAAFT-10 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 85W-140-20 L BUC</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 85W-140-210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-20X1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-7.5 L</t>
+  </si>
+  <si>
+    <t>SERVO AGROSPRAY T - 20 L BUC</t>
+  </si>
+  <si>
+    <t>SERVO ORCHARD SPRAY OIL - 20 L BUC</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-40X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40 - 20L BUC</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-15 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 85W-140-4 X 5 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-15L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-210 L BRL</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40-20L BUC</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-20 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-7.5L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-20 X 1 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W-40 - 4 X 3 L HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90 - 210L BRL</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W40-10L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO TRANSFLUID A-20X1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 20 L BUC</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 85W-140 - 20 X 1 L HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90 - 4 X 5 L HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90-20 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-600 X 20 ML</t>
+  </si>
+  <si>
+    <t>SERVO SCOOTOMTC 4ST 10W30-0.8 L</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 85W-140 - 4 X 5 L HDPE</t>
+  </si>
+  <si>
+    <t>SERVO GEAR SUPER 80W-90-4 X 5 L PROMO</t>
+  </si>
+  <si>
+    <t>SERVO 4T-20X1L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE 40 - 10L BUC</t>
+  </si>
+  <si>
+    <t>SERVO GEAR HP 90-40X1/2L-HDPE</t>
+  </si>
+  <si>
+    <t>SERVO 2T SUPREME-40X1/2L</t>
+  </si>
+  <si>
+    <t>SERVO EXCAVATOR TH 46 20 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE XL PLUS 15W40-4X3 L</t>
+  </si>
+  <si>
+    <t>SERVO PREMIUM CF-4 15W-40-4x5L - PROMO</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-1/2 L</t>
+  </si>
+  <si>
+    <t>SERVO SUPER 20W-40 MG-1 L</t>
+  </si>
+  <si>
+    <t>SERVO PRIDE TC 15W-40- 4 X 5L</t>
+  </si>
+  <si>
+    <t>SERVO OIB OIL-4x5L - HDPE</t>
+  </si>
+  <si>
+    <t>SERVO ORCHARD SPRAY OIL - 10 L BUC</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>AGRI-AGROSPRAY</t>
+  </si>
+  <si>
+    <t>AGRI-ORCHARD</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>&lt;ending please make sure to remove , comma add inverted come '</t>
+  </si>
+  <si>
+    <t>Bronze</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,16 +676,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -327,11 +739,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF979991"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF979991"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF979991"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -340,9 +777,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DDBFEAA0-BC67-42F9-A5C5-49D279759358}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -654,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DA7E0-4435-4F76-A7D5-E00B58F67F1F}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,6 +1115,7 @@
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="70.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1556,41 +2007,41 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>'Grade Name'!A34</f>
-        <v>3725213</v>
+        <v>7330242</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="str">
         <f>'Grade Name'!B34</f>
-        <v>SERVO SUPER PUMP SO 40-4x3.5L HDPE</v>
+        <v>IOC CLEARBLUE-10 L</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" t="str">
         <f>'Grade Name'!C34</f>
-        <v>Green</v>
+        <v>DEF</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>'3725213': { validName: 'SERVO SUPER PUMP SO 40-4x3.5L HDPE', grade: 'Green' },</v>
+        <v>'7330242': { validName: 'IOC CLEARBLUE-10 L', grade: 'DEF' },</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>'Grade Name'!A35</f>
-        <v>7330242</v>
+        <v>7330265</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="str">
         <f>'Grade Name'!B35</f>
-        <v>IOC CLEARBLUE-10 L</v>
+        <v>IOC CLEARBLUE-20 L</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
@@ -1604,47 +2055,47 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>'7330242': { validName: 'IOC CLEARBLUE-10 L', grade: 'DEF' },</v>
+        <v>'7330265': { validName: 'IOC CLEARBLUE-20 L', grade: 'DEF' },</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>'Grade Name'!A36</f>
-        <v>7330265</v>
+        <v>7701341</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="str">
         <f>'Grade Name'!B36</f>
-        <v>IOC CLEARBLUE-20 L</v>
+        <v>SERVO GREASE MP-20 KG BUC</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" t="str">
         <f>'Grade Name'!C36</f>
-        <v>DEF</v>
+        <v>Grease</v>
       </c>
       <c r="F36" t="s">
         <v>4</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>'7330265': { validName: 'IOC CLEARBLUE-20 L', grade: 'DEF' },</v>
+        <v>'7701341': { validName: 'SERVO GREASE MP-20 KG BUC', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>'Grade Name'!A37</f>
-        <v>7701341</v>
+        <v>7705303</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="str">
         <f>'Grade Name'!B37</f>
-        <v>SERVO GREASE MP-20 KG BUC</v>
+        <v>SERVO GREASE MP 3 - 20 X 1/2 KG CTN</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
@@ -1658,20 +2109,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>'7701341': { validName: 'SERVO GREASE MP-20 KG BUC', grade: 'Grease' },</v>
+        <v>'7705303': { validName: 'SERVO GREASE MP 3 - 20 X 1/2 KG CTN', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>'Grade Name'!A38</f>
-        <v>7705303</v>
+        <v>7705313</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="str">
         <f>'Grade Name'!B38</f>
-        <v>SERVO GREASE MP 3 - 20 X 1/2 KG CTN</v>
+        <v>SERVO GREASE MP 3 - 10 X 1 KG CTN</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
@@ -1685,20 +2136,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>'7705303': { validName: 'SERVO GREASE MP 3 - 20 X 1/2 KG CTN', grade: 'Grease' },</v>
+        <v>'7705313': { validName: 'SERVO GREASE MP 3 - 10 X 1 KG CTN', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>'Grade Name'!A39</f>
-        <v>7705313</v>
+        <v>7705327</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="str">
         <f>'Grade Name'!B39</f>
-        <v>SERVO GREASE MP 3 - 10 X 1 KG CTN</v>
+        <v>SERVOGREASE MP 3-6X2 KG</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
@@ -1712,20 +2163,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>'7705313': { validName: 'SERVO GREASE MP 3 - 10 X 1 KG CTN', grade: 'Grease' },</v>
+        <v>'7705327': { validName: 'SERVOGREASE MP 3-6X2 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>'Grade Name'!A40</f>
-        <v>7705327</v>
+        <v>7705337</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="str">
         <f>'Grade Name'!B40</f>
-        <v>SERVOGREASE MP 3-6X2 KG</v>
+        <v>SERVOGREASE MP 3-4X3 KG</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
@@ -1739,20 +2190,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>'7705327': { validName: 'SERVOGREASE MP 3-6X2 KG', grade: 'Grease' },</v>
+        <v>'7705337': { validName: 'SERVOGREASE MP 3-4X3 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>'Grade Name'!A41</f>
-        <v>7705337</v>
+        <v>7705339</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="str">
         <f>'Grade Name'!B41</f>
-        <v>SERVOGREASE MP 3-4X3 KG</v>
+        <v>SERVOGREASE MP 3 - 5 KG BUC</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
@@ -1766,20 +2217,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>'7705337': { validName: 'SERVOGREASE MP 3-4X3 KG', grade: 'Grease' },</v>
+        <v>'7705339': { validName: 'SERVOGREASE MP 3 - 5 KG BUC', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>'Grade Name'!A42</f>
-        <v>7705339</v>
+        <v>7705340</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="str">
         <f>'Grade Name'!B42</f>
-        <v>SERVOGREASE MP 3 - 5 KG BUC</v>
+        <v>SERVOGREASE MP 3-2 X 5 KG</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
@@ -1793,20 +2244,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>'7705339': { validName: 'SERVOGREASE MP 3 - 5 KG BUC', grade: 'Grease' },</v>
+        <v>'7705340': { validName: 'SERVOGREASE MP 3-2 X 5 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>'Grade Name'!A43</f>
-        <v>7705340</v>
+        <v>7705341</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="str">
         <f>'Grade Name'!B43</f>
-        <v>SERVOGREASE MP 3-2 X 5 KG</v>
+        <v>SERVOGREASE MP 3 -20 KG BUC</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
@@ -1820,20 +2271,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>'7705340': { validName: 'SERVOGREASE MP 3-2 X 5 KG', grade: 'Grease' },</v>
+        <v>'7705341': { validName: 'SERVOGREASE MP 3 -20 KG BUC', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>'Grade Name'!A44</f>
-        <v>7705341</v>
+        <v>7727303</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="str">
         <f>'Grade Name'!B44</f>
-        <v>SERVOGREASE MP 3 -20 KG BUC</v>
+        <v>SERVO GEM RR 3 - 20 X 1/2 KG CTN</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
@@ -1847,20 +2298,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>'7705341': { validName: 'SERVOGREASE MP 3 -20 KG BUC', grade: 'Grease' },</v>
+        <v>'7727303': { validName: 'SERVO GEM RR 3 - 20 X 1/2 KG CTN', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>'Grade Name'!A45</f>
-        <v>7727303</v>
+        <v>7727313</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" t="str">
         <f>'Grade Name'!B45</f>
-        <v>SERVO GEM RR 3 - 20 X 1/2 KG CTN</v>
+        <v>SERVO GEM RR 3 - 10 X 1 KG CTN</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -1874,20 +2325,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>'7727303': { validName: 'SERVO GEM RR 3 - 20 X 1/2 KG CTN', grade: 'Grease' },</v>
+        <v>'7727313': { validName: 'SERVO GEM RR 3 - 10 X 1 KG CTN', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>'Grade Name'!A46</f>
-        <v>7727313</v>
+        <v>7727327</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="str">
         <f>'Grade Name'!B46</f>
-        <v>SERVO GEM RR 3 - 10 X 1 KG CTN</v>
+        <v>SERVO GEM RR 3-6X2 KG TUB</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -1901,20 +2352,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>'7727313': { validName: 'SERVO GEM RR 3 - 10 X 1 KG CTN', grade: 'Grease' },</v>
+        <v>'7727327': { validName: 'SERVO GEM RR 3-6X2 KG TUB', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>'Grade Name'!A47</f>
-        <v>7727327</v>
+        <v>7727337</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="str">
         <f>'Grade Name'!B47</f>
-        <v>SERVO GEM RR 3-6X2 KG TUB</v>
+        <v>SERVO GEM RR 3-4X3 KG</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
@@ -1928,20 +2379,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>'7727327': { validName: 'SERVO GEM RR 3-6X2 KG TUB', grade: 'Grease' },</v>
+        <v>'7727337': { validName: 'SERVO GEM RR 3-4X3 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>'Grade Name'!A48</f>
-        <v>7727337</v>
+        <v>7727341</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="str">
         <f>'Grade Name'!B48</f>
-        <v>SERVO GEM RR 3-4X3 KG</v>
+        <v>SERVO GEM RR 3 - 20 KG. BUC</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -1955,20 +2406,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>'7727337': { validName: 'SERVO GEM RR 3-4X3 KG', grade: 'Grease' },</v>
+        <v>'7727341': { validName: 'SERVO GEM RR 3 - 20 KG. BUC', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>'Grade Name'!A49</f>
-        <v>7727341</v>
+        <v>7849303</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="str">
         <f>'Grade Name'!B49</f>
-        <v>SERVO GEM RR 3 - 20 KG. BUC</v>
+        <v>SERVO LONG LIFE GREASE-20 X 1/2 KG</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
@@ -1982,20 +2433,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>'7727341': { validName: 'SERVO GEM RR 3 - 20 KG. BUC', grade: 'Grease' },</v>
+        <v>'7849303': { validName: 'SERVO LONG LIFE GREASE-20 X 1/2 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>'Grade Name'!A50</f>
-        <v>7849303</v>
+        <v>7849313</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="str">
         <f>'Grade Name'!B50</f>
-        <v>SERVO LONG LIFE GREASE-20 X 1/2 KG</v>
+        <v>SERVO LONG LIFE GREASE-10X1 KG TUB</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -2009,20 +2460,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>'7849303': { validName: 'SERVO LONG LIFE GREASE-20 X 1/2 KG', grade: 'Grease' },</v>
+        <v>'7849313': { validName: 'SERVO LONG LIFE GREASE-10X1 KG TUB', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>'Grade Name'!A51</f>
-        <v>7849313</v>
+        <v>7849327</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="str">
         <f>'Grade Name'!B51</f>
-        <v>SERVO LONG LIFE GREASE-10X1 KG TUB</v>
+        <v>SERVO LONG LIFE GREASE-6X2 KG TUB</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
@@ -2036,20 +2487,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>'7849313': { validName: 'SERVO LONG LIFE GREASE-10X1 KG TUB', grade: 'Grease' },</v>
+        <v>'7849327': { validName: 'SERVO LONG LIFE GREASE-6X2 KG TUB', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>'Grade Name'!A52</f>
-        <v>7849327</v>
+        <v>7849337</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="str">
         <f>'Grade Name'!B52</f>
-        <v>SERVO LONG LIFE GREASE-6X2 KG TUB</v>
+        <v>SERVO LONG LIFE GREASE-4X3 KG TUB</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
@@ -2063,20 +2514,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>'7849327': { validName: 'SERVO LONG LIFE GREASE-6X2 KG TUB', grade: 'Grease' },</v>
+        <v>'7849337': { validName: 'SERVO LONG LIFE GREASE-4X3 KG TUB', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>'Grade Name'!A53</f>
-        <v>7849337</v>
+        <v>7849340</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="str">
         <f>'Grade Name'!B53</f>
-        <v>SERVO LONG LIFE GREASE-4X3 KG TUB</v>
+        <v>SERVO LONG LIFE GREASE-2 X 5 KG</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -2090,20 +2541,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>'7849337': { validName: 'SERVO LONG LIFE GREASE-4X3 KG TUB', grade: 'Grease' },</v>
+        <v>'7849340': { validName: 'SERVO LONG LIFE GREASE-2 X 5 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>'Grade Name'!A54</f>
-        <v>7849340</v>
+        <v>7849341</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="str">
         <f>'Grade Name'!B54</f>
-        <v>SERVO LONG LIFE GREASE-2 X 5 KG</v>
+        <v>SERVO LONG LIFE GREASE-20 KG</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
@@ -2117,20 +2568,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>'7849340': { validName: 'SERVO LONG LIFE GREASE-2 X 5 KG', grade: 'Grease' },</v>
+        <v>'7849341': { validName: 'SERVO LONG LIFE GREASE-20 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>'Grade Name'!A55</f>
-        <v>7849341</v>
+        <v>7849343</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" t="str">
         <f>'Grade Name'!B55</f>
-        <v>SERVO LONG LIFE GREASE-20 KG</v>
+        <v>SERVO LONG LIFE GREASE-7 KG</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
@@ -2144,20 +2595,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>'7849341': { validName: 'SERVO LONG LIFE GREASE-20 KG', grade: 'Grease' },</v>
+        <v>'7849343': { validName: 'SERVO LONG LIFE GREASE-7 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>'Grade Name'!A56</f>
-        <v>7849343</v>
+        <v>7849344</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="str">
         <f>'Grade Name'!B56</f>
-        <v>SERVO LONG LIFE GREASE-7 KG</v>
+        <v>SERVO LONG LIFE GREASE-10 KG BUC</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
@@ -2171,20 +2622,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>'7849343': { validName: 'SERVO LONG LIFE GREASE-7 KG', grade: 'Grease' },</v>
+        <v>'7849344': { validName: 'SERVO LONG LIFE GREASE-10 KG BUC', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>'Grade Name'!A57</f>
-        <v>7849344</v>
+        <v>7903303</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="str">
         <f>'Grade Name'!B57</f>
-        <v>SERVO LONG LIFE GREASE-10 KG BUC</v>
+        <v>SERVOGREASE MIRACLE 3-20 X 1/2 KG</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
@@ -2198,20 +2649,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>'7849344': { validName: 'SERVO LONG LIFE GREASE-10 KG BUC', grade: 'Grease' },</v>
+        <v>'7903303': { validName: 'SERVOGREASE MIRACLE 3-20 X 1/2 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>'Grade Name'!A58</f>
-        <v>7903303</v>
+        <v>7903313</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C58" t="str">
         <f>'Grade Name'!B58</f>
-        <v>SERVOGREASE MIRACLE 3-20 X 1/2 KG</v>
+        <v>SERVOGREASE MIRACLE 3-10 X 1 KG</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
@@ -2225,20 +2676,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>'7903303': { validName: 'SERVOGREASE MIRACLE 3-20 X 1/2 KG', grade: 'Grease' },</v>
+        <v>'7903313': { validName: 'SERVOGREASE MIRACLE 3-10 X 1 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>'Grade Name'!A59</f>
-        <v>7903313</v>
+        <v>7903327</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="str">
         <f>'Grade Name'!B59</f>
-        <v>SERVOGREASE MIRACLE 3-10 X 1 KG</v>
+        <v>SERVOGREASE MIRACLE 3-6 X 2 KG</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
@@ -2252,20 +2703,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>'7903313': { validName: 'SERVOGREASE MIRACLE 3-10 X 1 KG', grade: 'Grease' },</v>
+        <v>'7903327': { validName: 'SERVOGREASE MIRACLE 3-6 X 2 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>'Grade Name'!A60</f>
-        <v>7903327</v>
+        <v>7903337</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="str">
         <f>'Grade Name'!B60</f>
-        <v>SERVOGREASE MIRACLE 3-6 X 2 KG</v>
+        <v>SERVOGREASE MIRACLE 3-4 X 3 KG</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
@@ -2279,20 +2730,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>'7903327': { validName: 'SERVOGREASE MIRACLE 3-6 X 2 KG', grade: 'Grease' },</v>
+        <v>'7903337': { validName: 'SERVOGREASE MIRACLE 3-4 X 3 KG', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>'Grade Name'!A61</f>
-        <v>7903337</v>
+        <v>7903339</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="str">
         <f>'Grade Name'!B61</f>
-        <v>SERVOGREASE MIRACLE 3-4 X 3 KG</v>
+        <v xml:space="preserve">SERVOGREASE MIRACLE 3-5 KG </v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
@@ -2306,20 +2757,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>'7903337': { validName: 'SERVOGREASE MIRACLE 3-4 X 3 KG', grade: 'Grease' },</v>
+        <v>'7903339': { validName: 'SERVOGREASE MIRACLE 3-5 KG ', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>'Grade Name'!A62</f>
-        <v>7903339</v>
+        <v>7903343</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="str">
         <f>'Grade Name'!B62</f>
-        <v xml:space="preserve">SERVOGREASE MIRACLE 3-5 KG </v>
+        <v xml:space="preserve">SERVOGREASE MIRACLE 3-7 KG </v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
@@ -2333,20 +2784,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>'7903339': { validName: 'SERVOGREASE MIRACLE 3-5 KG ', grade: 'Grease' },</v>
+        <v>'7903343': { validName: 'SERVOGREASE MIRACLE 3-7 KG ', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>'Grade Name'!A63</f>
-        <v>7903343</v>
+        <v>7903344</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" t="str">
         <f>'Grade Name'!B63</f>
-        <v xml:space="preserve">SERVOGREASE MIRACLE 3-7 KG </v>
+        <v xml:space="preserve">SERVOGREASE MIRACLE 3-10 KG BUC </v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
@@ -2360,20 +2811,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>'7903343': { validName: 'SERVOGREASE MIRACLE 3-7 KG ', grade: 'Grease' },</v>
+        <v>'7903344': { validName: 'SERVOGREASE MIRACLE 3-10 KG BUC ', grade: 'Grease' },</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>'Grade Name'!A64</f>
-        <v>7903344</v>
+        <v>7903341</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="str">
         <f>'Grade Name'!B64</f>
-        <v xml:space="preserve">SERVOGREASE MIRACLE 3-10 KG BUC </v>
+        <v>SERVOGREASE MIRACLE 3-20 KG</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
@@ -2387,20 +2838,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>'7903344': { validName: 'SERVOGREASE MIRACLE 3-10 KG BUC ', grade: 'Grease' },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'7903341': { validName: 'SERVOGREASE MIRACLE 3-20 KG', grade: 'Grease' },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>'Grade Name'!A65</f>
-        <v>7903341</v>
+        <v>7742341</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="str">
         <f>'Grade Name'!B65</f>
-        <v>SERVOGREASE MIRACLE 3-20 KG</v>
+        <v>SERVOGEM EP 2-20 KG BUC</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -2414,20 +2865,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>'7903341': { validName: 'SERVOGREASE MIRACLE 3-20 KG', grade: 'Grease' },</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'7742341': { validName: 'SERVOGEM EP 2-20 KG BUC', grade: 'Grease' },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>'Grade Name'!A66</f>
-        <v>7742341</v>
+        <v>7903311</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="str">
         <f>'Grade Name'!B66</f>
-        <v>SERVOGEM EP 2-20 KG BUC</v>
+        <v>SERVOGREASE MIRACLE 3-1 KG GRES</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
@@ -2441,74 +2892,74 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>'7742341': { validName: 'SERVOGEM EP 2-20 KG BUC', grade: 'Grease' },</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'7903311': { validName: 'SERVOGREASE MIRACLE 3-1 KG GRES', grade: 'Grease' },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>'Grade Name'!A67</f>
-        <v>3040265</v>
+        <v>7705451</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="str">
         <f>'Grade Name'!B67</f>
-        <v>SERVOHYDRASHAKTI 68-20 L</v>
+        <v>SERVOGREASE MP 3 - 182 KG DRM</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
       </c>
       <c r="E67" t="str">
         <f>'Grade Name'!C67</f>
-        <v>Hydraulic</v>
+        <v>Grease</v>
       </c>
       <c r="F67" t="s">
         <v>4</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G78" si="1">_xlfn.CONCAT("'",A67,"'",B67,C67,D67,E67,F67)</f>
-        <v>'3040265': { validName: 'SERVOHYDRASHAKTI 68-20 L', grade: 'Hydraulic' },</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G67:G130" si="1">_xlfn.CONCAT("'",A67,"'",B67,C67,D67,E67,F67)</f>
+        <v>'7705451': { validName: 'SERVOGREASE MP 3 - 182 KG DRM', grade: 'Grease' },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>'Grade Name'!A68</f>
-        <v>3006401</v>
+        <v>7742451</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="str">
         <f>'Grade Name'!B68</f>
-        <v>SERVOSYSTEM 68 - 210L BRL</v>
+        <v>SERVOGEM EP 2-182 KG DRM</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
       </c>
       <c r="E68" t="str">
         <f>'Grade Name'!C68</f>
-        <v>Hydraulic</v>
+        <v>Grease</v>
       </c>
       <c r="F68" t="s">
         <v>4</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>'3006401': { validName: 'SERVOSYSTEM 68 - 210L BRL', grade: 'Hydraulic' },</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'7742451': { validName: 'SERVOGEM EP 2-182 KG DRM', grade: 'Grease' },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>'Grade Name'!A69</f>
-        <v>3006265</v>
+        <v>3040265</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="str">
         <f>'Grade Name'!B69</f>
-        <v>SERVOSYSTEM 68-20L BUC</v>
+        <v>SERVOHYDRASHAKTI 68-20 L</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
@@ -2522,20 +2973,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>'3006265': { validName: 'SERVOSYSTEM 68-20L BUC', grade: 'Hydraulic' },</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'3040265': { validName: 'SERVOHYDRASHAKTI 68-20 L', grade: 'Hydraulic' },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>'Grade Name'!A70</f>
-        <v>3006403</v>
+        <v>3006401</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="str">
         <f>'Grade Name'!B70</f>
-        <v>SERVOSYSTEM 68-210 L HD</v>
+        <v>SERVOSYSTEM 68 - 210L BRL</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
@@ -2549,20 +3000,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>'3006403': { validName: 'SERVOSYSTEM 68-210 L HD', grade: 'Hydraulic' },</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'3006401': { validName: 'SERVOSYSTEM 68 - 210L BRL', grade: 'Hydraulic' },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>'Grade Name'!A71</f>
-        <v>3006234</v>
+        <v>3006265</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="str">
         <f>'Grade Name'!B71</f>
-        <v>SERVOSYSTEM 68-4x5L - HDPE</v>
+        <v>SERVOSYSTEM 68-20L BUC</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
@@ -2571,205 +3022,3091 @@
         <f>'Grade Name'!C71</f>
         <v>Hydraulic</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>83</v>
+      <c r="F71" t="s">
+        <v>4</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>'3006234': { validName: 'SERVOSYSTEM 68-4x5L - HDPE', grade: 'Hydraulic }</v>
-      </c>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'3006265': { validName: 'SERVOSYSTEM 68-20L BUC', grade: 'Hydraulic' },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>'Grade Name'!A72</f>
-        <v>0</v>
+        <v>3006403</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="str">
         <f>'Grade Name'!B72</f>
-        <v>0</v>
+        <v>SERVOSYSTEM 68-210 L HD</v>
       </c>
       <c r="D72" t="s">
         <v>2</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="str">
         <f>'Grade Name'!C72</f>
-        <v>0</v>
+        <v>Hydraulic</v>
       </c>
       <c r="F72" t="s">
         <v>4</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>'0': { validName: '0', grade: '0' },</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'3006403': { validName: 'SERVOSYSTEM 68-210 L HD', grade: 'Hydraulic' },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>'Grade Name'!A73</f>
-        <v>0</v>
+        <v>3006234</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="str">
         <f>'Grade Name'!B73</f>
-        <v>0</v>
+        <v>SERVOSYSTEM 68-4x5L - HDPE</v>
       </c>
       <c r="D73" t="s">
         <v>2</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="str">
         <f>'Grade Name'!C73</f>
-        <v>0</v>
+        <v>Hydraulic</v>
       </c>
       <c r="F73" t="s">
         <v>4</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>'0': { validName: '0', grade: '0' },</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'3006234': { validName: 'SERVOSYSTEM 68-4x5L - HDPE', grade: 'Hydraulic' },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>'Grade Name'!A74</f>
-        <v>0</v>
+        <v>2502265</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="str">
         <f>'Grade Name'!B74</f>
-        <v>0</v>
+        <v>SERVO GEAR HP 90-20L BUC</v>
       </c>
       <c r="D74" t="s">
         <v>2</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="str">
         <f>'Grade Name'!C74</f>
-        <v>0</v>
+        <v>Silver</v>
       </c>
       <c r="F74" t="s">
         <v>4</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>'0': { validName: '0', grade: '0' },</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'2502265': { validName: 'SERVO GEAR HP 90-20L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>'Grade Name'!A75</f>
-        <v>0</v>
+        <v>7485174</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="str">
         <f>'Grade Name'!B75</f>
-        <v>0</v>
+        <v>SERVO SUPER 20W-40 MG-40X1/2L</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="str">
         <f>'Grade Name'!C75</f>
-        <v>0</v>
+        <v>Silver</v>
       </c>
       <c r="F75" t="s">
         <v>4</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>'0': { validName: '0', grade: '0' },</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'7485174': { validName: 'SERVO SUPER 20W-40 MG-40X1/2L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>'Grade Name'!A76</f>
-        <v>0</v>
+        <v>7485242</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="str">
         <f>'Grade Name'!B76</f>
-        <v>0</v>
+        <v>SERVO SUPER 20W-40 MG-10 L</v>
       </c>
       <c r="D76" t="s">
         <v>2</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="str">
         <f>'Grade Name'!C76</f>
-        <v>0</v>
+        <v>Silver</v>
       </c>
       <c r="F76" t="s">
         <v>4</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>'0': { validName: '0', grade: '0' },</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'7485242': { validName: 'SERVO SUPER 20W-40 MG-10 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>'Grade Name'!A77</f>
-        <v>0</v>
+        <v>7485265</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="str">
         <f>'Grade Name'!B77</f>
-        <v>0</v>
+        <v>SERVO SUPER 20W-40 MG-20 L</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="str">
         <f>'Grade Name'!C77</f>
-        <v>0</v>
+        <v>Silver</v>
       </c>
       <c r="F77" t="s">
         <v>4</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>'0': { validName: '0', grade: '0' },</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>'7485265': { validName: 'SERVO SUPER 20W-40 MG-20 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f>'Grade Name'!A90</f>
-        <v>0</v>
+        <f>'Grade Name'!A78</f>
+        <v>7485234</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C78">
-        <f>'Grade Name'!B90</f>
-        <v>0</v>
+      <c r="C78" t="str">
+        <f>'Grade Name'!B78</f>
+        <v>SERVO SUPER 20W-40 MG-4x5L - HDPE</v>
       </c>
       <c r="D78" t="s">
         <v>2</v>
       </c>
-      <c r="E78">
-        <f>'Grade Name'!C90</f>
-        <v>0</v>
+      <c r="E78" t="str">
+        <f>'Grade Name'!C78</f>
+        <v>Silver</v>
       </c>
       <c r="F78" t="s">
         <v>4</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>'0': { validName: '0', grade: '0' },</v>
-      </c>
+        <v>'7485234': { validName: 'SERVO SUPER 20W-40 MG-4x5L - HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f>'Grade Name'!A79</f>
+        <v>2931184</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="str">
+        <f>'Grade Name'!B79</f>
+        <v>SERVO 4T 20W-50-20 X 1 L</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" t="str">
+        <f>'Grade Name'!C79</f>
+        <v>Silver</v>
+      </c>
+      <c r="F79" t="s">
+        <v>4</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>'2931184': { validName: 'SERVO 4T 20W-50-20 X 1 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>'Grade Name'!A80</f>
+        <v>2502184</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="str">
+        <f>'Grade Name'!B80</f>
+        <v>SERVO GEAR HP 90-20X1L-HDPE</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" t="str">
+        <f>'Grade Name'!C80</f>
+        <v>Silver</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>'2502184': { validName: 'SERVO GEAR HP 90-20X1L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f>'Grade Name'!A81</f>
+        <v>2900145</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="str">
+        <f>'Grade Name'!B81</f>
+        <v>SERVO 2T SUPREME (JFC) - 200X60ML - POU</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" t="str">
+        <f>'Grade Name'!C81</f>
+        <v>Silver</v>
+      </c>
+      <c r="F81" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>'2900145': { validName: 'SERVO 2T SUPREME (JFC) - 200X60ML - POU', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f>'Grade Name'!A82</f>
+        <v>7577234</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="str">
+        <f>'Grade Name'!B82</f>
+        <v>SERVO PREMIUM CF-4 15W-40-4X5L-HDPE</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" t="str">
+        <f>'Grade Name'!C82</f>
+        <v>Silver</v>
+      </c>
+      <c r="F82" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577234': { validName: 'SERVO PREMIUM CF-4 15W-40-4X5L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f>'Grade Name'!A83</f>
+        <v>2889156</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="str">
+        <f>'Grade Name'!B83</f>
+        <v>SERVO SCOOTOMATIC 4ST 10W-30-20 X 0.8 L</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" t="str">
+        <f>'Grade Name'!C83</f>
+        <v>Silver</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>'2889156': { validName: 'SERVO SCOOTOMATIC 4ST 10W-30-20 X 0.8 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f>'Grade Name'!A84</f>
+        <v>2900184</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="str">
+        <f>'Grade Name'!B84</f>
+        <v>SERVO 2T SUPREME-20 X 1 L</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" t="str">
+        <f>'Grade Name'!C84</f>
+        <v>Silver</v>
+      </c>
+      <c r="F84" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>'2900184': { validName: 'SERVO 2T SUPREME-20 X 1 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f>'Grade Name'!A85</f>
+        <v>2924229</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="str">
+        <f>'Grade Name'!B85</f>
+        <v>SERVO 4T - 20 X 1 L HDPE PROMO</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" t="str">
+        <f>'Grade Name'!C85</f>
+        <v>Silver</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>'2924229': { validName: 'SERVO 4T - 20 X 1 L HDPE PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f>'Grade Name'!A86</f>
+        <v>7577184</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="str">
+        <f>'Grade Name'!B86</f>
+        <v>SERVO PREMIUM CF-4 15W-40-20X1L-HDPE</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" t="str">
+        <f>'Grade Name'!C86</f>
+        <v>Silver</v>
+      </c>
+      <c r="F86" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577184': { validName: 'SERVO PREMIUM CF-4 15W-40-20X1L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f>'Grade Name'!A87</f>
+        <v>7489253</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="str">
+        <f>'Grade Name'!B87</f>
+        <v>SERVO PRIDE XL PLUS 15W40-15L PROMO</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" t="str">
+        <f>'Grade Name'!C87</f>
+        <v>Silver</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>'7489253': { validName: 'SERVO PRIDE XL PLUS 15W40-15L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f>'Grade Name'!A88</f>
+        <v>7577265</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="str">
+        <f>'Grade Name'!B88</f>
+        <v>SERVO PREMIUM CF 4 15W 40-20L BUC</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" t="str">
+        <f>'Grade Name'!C88</f>
+        <v>Silver</v>
+      </c>
+      <c r="F88" t="s">
+        <v>4</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577265': { validName: 'SERVO PREMIUM CF 4 15W 40-20L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f>'Grade Name'!A89</f>
+        <v>4906234</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="str">
+        <f>'Grade Name'!B89</f>
+        <v>SERVO TRANSFLUID A-4X5L-HDPE</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" t="str">
+        <f>'Grade Name'!C89</f>
+        <v>Silver</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>'4906234': { validName: 'SERVO TRANSFLUID A-4X5L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f>'Grade Name'!A90</f>
+        <v>7577401</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="str">
+        <f>'Grade Name'!B90</f>
+        <v>SERVO PREMIUM CF-4 15W-40 - 210L BRL</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" t="str">
+        <f>'Grade Name'!C90</f>
+        <v>Silver</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577401': { validName: 'SERVO PREMIUM CF-4 15W-40 - 210L BRL', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f>'Grade Name'!A91</f>
+        <v>7489241</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="str">
+        <f>'Grade Name'!B91</f>
+        <v>SERVO PRIDE XL PLUS 15W40-10L PROMO</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="str">
+        <f>'Grade Name'!C91</f>
+        <v>Silver</v>
+      </c>
+      <c r="F91" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>'7489241': { validName: 'SERVO PRIDE XL PLUS 15W40-10L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f>'Grade Name'!A92</f>
+        <v>7489250</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="str">
+        <f>'Grade Name'!B92</f>
+        <v>SERVO PRIDE XL PLUS 15W40-7.5L PROMO</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" t="str">
+        <f>'Grade Name'!C92</f>
+        <v>Silver</v>
+      </c>
+      <c r="F92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>'7489250': { validName: 'SERVO PRIDE XL PLUS 15W40-7.5L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f>'Grade Name'!A93</f>
+        <v>7485184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="str">
+        <f>'Grade Name'!B93</f>
+        <v>SERVO SUPER 20W-40 MG-20 X 1 L</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="str">
+        <f>'Grade Name'!C93</f>
+        <v>Silver</v>
+      </c>
+      <c r="F93" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>'7485184': { validName: 'SERVO SUPER 20W-40 MG-20 X 1 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f>'Grade Name'!A94</f>
+        <v>2502234</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="str">
+        <f>'Grade Name'!B94</f>
+        <v>SERVO GEAR HP 90 - 4x5L - HDPE</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" t="str">
+        <f>'Grade Name'!C94</f>
+        <v>Silver</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>'2502234': { validName: 'SERVO GEAR HP 90 - 4x5L - HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f>'Grade Name'!A95</f>
+        <v>2900125</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="str">
+        <f>'Grade Name'!B95</f>
+        <v>SERVO 2T SUPREME(JFC)-300x40ML - POU</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" t="str">
+        <f>'Grade Name'!C95</f>
+        <v>Silver</v>
+      </c>
+      <c r="F95" t="s">
+        <v>4</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>'2900125': { validName: 'SERVO 2T SUPREME(JFC)-300x40ML - POU', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f>'Grade Name'!A96</f>
+        <v>7511251</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="str">
+        <f>'Grade Name'!B96</f>
+        <v>SERVO GEAR SUPER 80W-90-7.5 L</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="str">
+        <f>'Grade Name'!C96</f>
+        <v>Silver</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>'7511251': { validName: 'SERVO GEAR SUPER 80W-90-7.5 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f>'Grade Name'!A97</f>
+        <v>7577242</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="str">
+        <f>'Grade Name'!B97</f>
+        <v>SERVO PREMIUM CF-4 15W-40-10L BUC</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="str">
+        <f>'Grade Name'!C97</f>
+        <v>Silver</v>
+      </c>
+      <c r="F97" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577242': { validName: 'SERVO PREMIUM CF-4 15W-40-10L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>'Grade Name'!A98</f>
+        <v>7556184</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="str">
+        <f>'Grade Name'!B98</f>
+        <v>SERVO PRIDE TC 15W40 - 20X1L-HDPE</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" t="str">
+        <f>'Grade Name'!C98</f>
+        <v>Silver</v>
+      </c>
+      <c r="F98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>'7556184': { validName: 'SERVO PRIDE TC 15W40 - 20X1L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f>'Grade Name'!A99</f>
+        <v>4906184</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="str">
+        <f>'Grade Name'!B99</f>
+        <v>SERVO TRANSFLUID A-20X1L-HDPE</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" t="str">
+        <f>'Grade Name'!C99</f>
+        <v>Silver</v>
+      </c>
+      <c r="F99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>'4906184': { validName: 'SERVO TRANSFLUID A-20X1L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>'Grade Name'!A100</f>
+        <v>1404184</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="str">
+        <f>'Grade Name'!B100</f>
+        <v>SERVO PRIDE 40 - 20x1L - HDPE</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="str">
+        <f>'Grade Name'!C100</f>
+        <v>Silver</v>
+      </c>
+      <c r="F100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>'1404184': { validName: 'SERVO PRIDE 40 - 20x1L - HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f>'Grade Name'!A101</f>
+        <v>1404234</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="str">
+        <f>'Grade Name'!B101</f>
+        <v>SERVO PRIDE 40 - 4x5L - HDPE</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="str">
+        <f>'Grade Name'!C101</f>
+        <v>Silver</v>
+      </c>
+      <c r="F101" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>'1404234': { validName: 'SERVO PRIDE 40 - 4x5L - HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f>'Grade Name'!A102</f>
+        <v>7577251</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="str">
+        <f>'Grade Name'!B102</f>
+        <v>SERVO PREMIUM CF-4 15W-40-7.5 L</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" t="str">
+        <f>'Grade Name'!C102</f>
+        <v>Silver</v>
+      </c>
+      <c r="F102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577251': { validName: 'SERVO PREMIUM CF-4 15W-40-7.5 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f>'Grade Name'!A103</f>
+        <v>7511184</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="str">
+        <f>'Grade Name'!B103</f>
+        <v>SERVO GEAR SUPER 80W-90 - 20 X 1 L HDPE</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="str">
+        <f>'Grade Name'!C103</f>
+        <v>Silver</v>
+      </c>
+      <c r="F103" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>'7511184': { validName: 'SERVO GEAR SUPER 80W-90 - 20 X 1 L HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f>'Grade Name'!A104</f>
+        <v>2896150</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="str">
+        <f>'Grade Name'!B104</f>
+        <v>TRU4 KRAAFT-10 X 0.9 L</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="str">
+        <f>'Grade Name'!C104</f>
+        <v>Silver</v>
+      </c>
+      <c r="F104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>'2896150': { validName: 'TRU4 KRAAFT-10 X 0.9 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f>'Grade Name'!A105</f>
+        <v>2896185</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="str">
+        <f>'Grade Name'!B105</f>
+        <v>TRU4 KRAAFT-10 X 1 L</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" t="str">
+        <f>'Grade Name'!C105</f>
+        <v>Silver</v>
+      </c>
+      <c r="F105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>'2896185': { validName: 'TRU4 KRAAFT-10 X 1 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f>'Grade Name'!A106</f>
+        <v>7515265</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="str">
+        <f>'Grade Name'!B106</f>
+        <v>SERVO GEAR SUPER 85W-140-20 L BUC</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="str">
+        <f>'Grade Name'!C106</f>
+        <v>Silver</v>
+      </c>
+      <c r="F106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>'7515265': { validName: 'SERVO GEAR SUPER 85W-140-20 L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f>'Grade Name'!A107</f>
+        <v>7515401</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="str">
+        <f>'Grade Name'!B107</f>
+        <v>SERVO GEAR SUPER 85W-140-210L BRL</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="str">
+        <f>'Grade Name'!C107</f>
+        <v>Silver</v>
+      </c>
+      <c r="F107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>'7515401': { validName: 'SERVO GEAR SUPER 85W-140-210L BRL', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f>'Grade Name'!A108</f>
+        <v>2900175</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="str">
+        <f>'Grade Name'!B108</f>
+        <v>SERVO 2T SUPREME-20X1/2 L</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="str">
+        <f>'Grade Name'!C108</f>
+        <v>Silver</v>
+      </c>
+      <c r="F108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>'2900175': { validName: 'SERVO 2T SUPREME-20X1/2 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f>'Grade Name'!A109</f>
+        <v>7485251</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="str">
+        <f>'Grade Name'!B109</f>
+        <v>SERVO SUPER 20W-40 MG-7.5 L</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" t="str">
+        <f>'Grade Name'!C109</f>
+        <v>Silver</v>
+      </c>
+      <c r="F109" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>'7485251': { validName: 'SERVO SUPER 20W-40 MG-7.5 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f>'Grade Name'!A110</f>
+        <v>7651265</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="str">
+        <f>'Grade Name'!B110</f>
+        <v>SERVO AGROSPRAY T - 20 L BUC</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" t="str">
+        <f>'Grade Name'!C110</f>
+        <v>Silver</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>'7651265': { validName: 'SERVO AGROSPRAY T - 20 L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f>'Grade Name'!A111</f>
+        <v>7586265</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="str">
+        <f>'Grade Name'!B111</f>
+        <v>SERVO ORCHARD SPRAY OIL - 20 L BUC</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="str">
+        <f>'Grade Name'!C111</f>
+        <v>Silver</v>
+      </c>
+      <c r="F111" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>'7586265': { validName: 'SERVO ORCHARD SPRAY OIL - 20 L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f>'Grade Name'!A112</f>
+        <v>7511401</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="str">
+        <f>'Grade Name'!B112</f>
+        <v>SERVO GEAR SUPER 80W-90 - 210L BRL</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" t="str">
+        <f>'Grade Name'!C112</f>
+        <v>Silver</v>
+      </c>
+      <c r="F112" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>'7511401': { validName: 'SERVO GEAR SUPER 80W-90 - 210L BRL', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f>'Grade Name'!A113</f>
+        <v>7577174</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="str">
+        <f>'Grade Name'!B113</f>
+        <v>SERVO PREMIUM CF-4 15W-40-40X1/2L-HDPE</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" t="str">
+        <f>'Grade Name'!C113</f>
+        <v>Silver</v>
+      </c>
+      <c r="F113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577174': { validName: 'SERVO PREMIUM CF-4 15W-40-40X1/2L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f>'Grade Name'!A114</f>
+        <v>7556265</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="str">
+        <f>'Grade Name'!B114</f>
+        <v>SERVO PRIDE TC 15W40 - 20L BUC</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" t="str">
+        <f>'Grade Name'!C114</f>
+        <v>Silver</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>'7556265': { validName: 'SERVO PRIDE TC 15W40 - 20L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f>'Grade Name'!A115</f>
+        <v>7577256</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="str">
+        <f>'Grade Name'!B115</f>
+        <v>SERVO PREMIUM CF-4 15W-40-15 L</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" t="str">
+        <f>'Grade Name'!C115</f>
+        <v>Silver</v>
+      </c>
+      <c r="F115" t="s">
+        <v>4</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>'7577256': { validName: 'SERVO PREMIUM CF-4 15W-40-15 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f>'Grade Name'!A116</f>
+        <v>7489234</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="str">
+        <f>'Grade Name'!B116</f>
+        <v>SERVO PRIDE XL PLUS 15W40-4x5L - HDPE</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" t="str">
+        <f>'Grade Name'!C116</f>
+        <v>Silver</v>
+      </c>
+      <c r="F116" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>'7489234': { validName: 'SERVO PRIDE XL PLUS 15W40-4x5L - HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f>'Grade Name'!A117</f>
+        <v>7515240</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="str">
+        <f>'Grade Name'!B117</f>
+        <v>SERVO GEAR SUPER 85W-140-4 X 5 L PROMO</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" t="str">
+        <f>'Grade Name'!C117</f>
+        <v>Silver</v>
+      </c>
+      <c r="F117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>'7515240': { validName: 'SERVO GEAR SUPER 85W-140-4 X 5 L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f>'Grade Name'!A118</f>
+        <v>7556253</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="str">
+        <f>'Grade Name'!B118</f>
+        <v>SERVO PRIDE TC 15W40-15L PROMO</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="str">
+        <f>'Grade Name'!C118</f>
+        <v>Silver</v>
+      </c>
+      <c r="F118" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>'7556253': { validName: 'SERVO PRIDE TC 15W40-15L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f>'Grade Name'!A119</f>
+        <v>7485401</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="str">
+        <f>'Grade Name'!B119</f>
+        <v>SERVO SUPER 20W-40 MG-210 L BRL</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" t="str">
+        <f>'Grade Name'!C119</f>
+        <v>Silver</v>
+      </c>
+      <c r="F119" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>'7485401': { validName: 'SERVO SUPER 20W-40 MG-210 L BRL', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f>'Grade Name'!A120</f>
+        <v>1404265</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="str">
+        <f>'Grade Name'!B120</f>
+        <v>SERVO PRIDE 40-20L BUC</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" t="str">
+        <f>'Grade Name'!C120</f>
+        <v>Silver</v>
+      </c>
+      <c r="F120" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>'1404265': { validName: 'SERVO PRIDE 40-20L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f>'Grade Name'!A121</f>
+        <v>7489265</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="str">
+        <f>'Grade Name'!B121</f>
+        <v>SERVO PRIDE XL PLUS 15W40-20 L</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" t="str">
+        <f>'Grade Name'!C121</f>
+        <v>Silver</v>
+      </c>
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>'7489265': { validName: 'SERVO PRIDE XL PLUS 15W40-20 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f>'Grade Name'!A122</f>
+        <v>7556250</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="str">
+        <f>'Grade Name'!B122</f>
+        <v>SERVO PRIDE TC 15W40-7.5L PROMO</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" t="str">
+        <f>'Grade Name'!C122</f>
+        <v>Silver</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>'7556250': { validName: 'SERVO PRIDE TC 15W40-7.5L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f>'Grade Name'!A123</f>
+        <v>7489184</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="str">
+        <f>'Grade Name'!B123</f>
+        <v>SERVO PRIDE XL PLUS 15W40-20 X 1 L</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" t="str">
+        <f>'Grade Name'!C123</f>
+        <v>Silver</v>
+      </c>
+      <c r="F123" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>'7489184': { validName: 'SERVO PRIDE XL PLUS 15W40-20 X 1 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f>'Grade Name'!A124</f>
+        <v>7556203</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="str">
+        <f>'Grade Name'!B124</f>
+        <v>SERVO PRIDE TC 15W-40 - 4 X 3 L HDPE</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" t="str">
+        <f>'Grade Name'!C124</f>
+        <v>Silver</v>
+      </c>
+      <c r="F124" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>'7556203': { validName: 'SERVO PRIDE TC 15W-40 - 4 X 3 L HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f>'Grade Name'!A125</f>
+        <v>2502401</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="str">
+        <f>'Grade Name'!B125</f>
+        <v>SERVO GEAR HP 90 - 210L BRL</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" t="str">
+        <f>'Grade Name'!C125</f>
+        <v>Silver</v>
+      </c>
+      <c r="F125" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>'2502401': { validName: 'SERVO GEAR HP 90 - 210L BRL', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f>'Grade Name'!A126</f>
+        <v>7556241</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="str">
+        <f>'Grade Name'!B126</f>
+        <v>SERVO PRIDE TC 15W40-10L PROMO</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" t="str">
+        <f>'Grade Name'!C126</f>
+        <v>Silver</v>
+      </c>
+      <c r="F126" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>'7556241': { validName: 'SERVO PRIDE TC 15W40-10L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f>'Grade Name'!A127</f>
+        <v>4906175</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="str">
+        <f>'Grade Name'!B127</f>
+        <v>SERVO TRANSFLUID A-20X1/2 L</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" t="str">
+        <f>'Grade Name'!C127</f>
+        <v>Silver</v>
+      </c>
+      <c r="F127" t="s">
+        <v>4</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>'4906175': { validName: 'SERVO TRANSFLUID A-20X1/2 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f>'Grade Name'!A128</f>
+        <v>7511265</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="str">
+        <f>'Grade Name'!B128</f>
+        <v>SERVO GEAR SUPER 80W-90 - 20 L BUC</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" t="str">
+        <f>'Grade Name'!C128</f>
+        <v>Silver</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>'7511265': { validName: 'SERVO GEAR SUPER 80W-90 - 20 L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f>'Grade Name'!A129</f>
+        <v>7515184</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="str">
+        <f>'Grade Name'!B129</f>
+        <v>SERVO GEAR SUPER 85W-140 - 20 X 1 L HDPE</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" t="str">
+        <f>'Grade Name'!C129</f>
+        <v>Silver</v>
+      </c>
+      <c r="F129" t="s">
+        <v>4</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>'7515184': { validName: 'SERVO GEAR SUPER 85W-140 - 20 X 1 L HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f>'Grade Name'!A130</f>
+        <v>7511234</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="str">
+        <f>'Grade Name'!B130</f>
+        <v>SERVO GEAR SUPER 80W-90 - 4 X 5 L HDPE</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" t="str">
+        <f>'Grade Name'!C130</f>
+        <v>Silver</v>
+      </c>
+      <c r="F130" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>'7511234': { validName: 'SERVO GEAR SUPER 80W-90 - 4 X 5 L HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f>'Grade Name'!A131</f>
+        <v>7511269</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="str">
+        <f>'Grade Name'!B131</f>
+        <v>SERVO GEAR SUPER 80W-90-20 L PROMO</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" t="str">
+        <f>'Grade Name'!C131</f>
+        <v>Silver</v>
+      </c>
+      <c r="F131" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G187" si="2">_xlfn.CONCAT("'",A131,"'",B131,C131,D131,E131,F131)</f>
+        <v>'7511269': { validName: 'SERVO GEAR SUPER 80W-90-20 L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f>'Grade Name'!A132</f>
+        <v>2900103</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="str">
+        <f>'Grade Name'!B132</f>
+        <v>SERVO 2T SUPREME-600 X 20 ML</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" t="str">
+        <f>'Grade Name'!C132</f>
+        <v>Silver</v>
+      </c>
+      <c r="F132" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>'2900103': { validName: 'SERVO 2T SUPREME-600 X 20 ML', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f>'Grade Name'!A133</f>
+        <v>2889155</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="str">
+        <f>'Grade Name'!B133</f>
+        <v>SERVO SCOOTOMTC 4ST 10W30-0.8 L</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" t="str">
+        <f>'Grade Name'!C133</f>
+        <v>Silver</v>
+      </c>
+      <c r="F133" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>'2889155': { validName: 'SERVO SCOOTOMTC 4ST 10W30-0.8 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f>'Grade Name'!A134</f>
+        <v>7515234</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="str">
+        <f>'Grade Name'!B134</f>
+        <v>SERVO GEAR SUPER 85W-140 - 4 X 5 L HDPE</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" t="str">
+        <f>'Grade Name'!C134</f>
+        <v>Silver</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>'7515234': { validName: 'SERVO GEAR SUPER 85W-140 - 4 X 5 L HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f>'Grade Name'!A135</f>
+        <v>7511240</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="str">
+        <f>'Grade Name'!B135</f>
+        <v>SERVO GEAR SUPER 80W-90-4 X 5 L PROMO</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" t="str">
+        <f>'Grade Name'!C135</f>
+        <v>Silver</v>
+      </c>
+      <c r="F135" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>'7511240': { validName: 'SERVO GEAR SUPER 80W-90-4 X 5 L PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f>'Grade Name'!A136</f>
+        <v>2924184</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="str">
+        <f>'Grade Name'!B136</f>
+        <v>SERVO 4T-20X1L-HDPE</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" t="str">
+        <f>'Grade Name'!C136</f>
+        <v>Silver</v>
+      </c>
+      <c r="F136" t="s">
+        <v>4</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>'2924184': { validName: 'SERVO 4T-20X1L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f>'Grade Name'!A137</f>
+        <v>1404242</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="str">
+        <f>'Grade Name'!B137</f>
+        <v>SERVO PRIDE 40 - 10L BUC</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" t="str">
+        <f>'Grade Name'!C137</f>
+        <v>Silver</v>
+      </c>
+      <c r="F137" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>'1404242': { validName: 'SERVO PRIDE 40 - 10L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f>'Grade Name'!A138</f>
+        <v>2502174</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="str">
+        <f>'Grade Name'!B138</f>
+        <v>SERVO GEAR HP 90-40X1/2L-HDPE</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" t="str">
+        <f>'Grade Name'!C138</f>
+        <v>Silver</v>
+      </c>
+      <c r="F138" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>'2502174': { validName: 'SERVO GEAR HP 90-40X1/2L-HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f>'Grade Name'!A139</f>
+        <v>2900174</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="str">
+        <f>'Grade Name'!B139</f>
+        <v>SERVO 2T SUPREME-40X1/2L</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" t="str">
+        <f>'Grade Name'!C139</f>
+        <v>Silver</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>'2900174': { validName: 'SERVO 2T SUPREME-40X1/2L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f>'Grade Name'!A140</f>
+        <v>3057265</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="str">
+        <f>'Grade Name'!B140</f>
+        <v>SERVO EXCAVATOR TH 46 20 L</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" t="str">
+        <f>'Grade Name'!C140</f>
+        <v>Silver</v>
+      </c>
+      <c r="F140" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>'3057265': { validName: 'SERVO EXCAVATOR TH 46 20 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f>'Grade Name'!A141</f>
+        <v>7489203</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="str">
+        <f>'Grade Name'!B141</f>
+        <v>SERVO PRIDE XL PLUS 15W40-4X3 L</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" t="str">
+        <f>'Grade Name'!C141</f>
+        <v>Silver</v>
+      </c>
+      <c r="F141" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>'7489203': { validName: 'SERVO PRIDE XL PLUS 15W40-4X3 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f>'Grade Name'!A142</f>
+        <v>7577240</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="str">
+        <f>'Grade Name'!B142</f>
+        <v>SERVO PREMIUM CF-4 15W-40-4x5L - PROMO</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="str">
+        <f>'Grade Name'!C142</f>
+        <v>Silver</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>'7577240': { validName: 'SERVO PREMIUM CF-4 15W-40-4x5L - PROMO', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f>'Grade Name'!A143</f>
+        <v>7485173</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="str">
+        <f>'Grade Name'!B143</f>
+        <v>SERVO SUPER 20W-40 MG-1/2 L</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" t="str">
+        <f>'Grade Name'!C143</f>
+        <v>Silver</v>
+      </c>
+      <c r="F143" t="s">
+        <v>4</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>'7485173': { validName: 'SERVO SUPER 20W-40 MG-1/2 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f>'Grade Name'!A144</f>
+        <v>7485183</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="str">
+        <f>'Grade Name'!B144</f>
+        <v>SERVO SUPER 20W-40 MG-1 L</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" t="str">
+        <f>'Grade Name'!C144</f>
+        <v>Silver</v>
+      </c>
+      <c r="F144" t="s">
+        <v>4</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>'7485183': { validName: 'SERVO SUPER 20W-40 MG-1 L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f>'Grade Name'!A145</f>
+        <v>7556234</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="str">
+        <f>'Grade Name'!B145</f>
+        <v>SERVO PRIDE TC 15W-40- 4 X 5L</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" t="str">
+        <f>'Grade Name'!C145</f>
+        <v>Silver</v>
+      </c>
+      <c r="F145" t="s">
+        <v>4</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>'7556234': { validName: 'SERVO PRIDE TC 15W-40- 4 X 5L', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f>'Grade Name'!A146</f>
+        <v>4950234</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="str">
+        <f>'Grade Name'!B146</f>
+        <v>SERVO OIB OIL-4x5L - HDPE</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" t="str">
+        <f>'Grade Name'!C146</f>
+        <v>Silver</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>'4950234': { validName: 'SERVO OIB OIL-4x5L - HDPE', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f>'Grade Name'!A147</f>
+        <v>7586242</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="str">
+        <f>'Grade Name'!B147</f>
+        <v>SERVO ORCHARD SPRAY OIL - 10 L BUC</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" t="str">
+        <f>'Grade Name'!C147</f>
+        <v>Silver</v>
+      </c>
+      <c r="F147" t="s">
+        <v>4</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>'7586242': { validName: 'SERVO ORCHARD SPRAY OIL - 10 L BUC', grade: 'Silver' },</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f>'Grade Name'!A148</f>
+        <v>7472256</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="str">
+        <f>'Grade Name'!B148</f>
+        <v>SERVO FLT CF4 15W-40-15 L</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" t="str">
+        <f>'Grade Name'!C148</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F148" t="s">
+        <v>4</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>'7472256': { validName: 'SERVO FLT CF4 15W-40-15 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f>'Grade Name'!A149</f>
+        <v>7427401</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="str">
+        <f>'Grade Name'!B149</f>
+        <v>ECSTAR PETROL 0W-20-210 L</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" t="str">
+        <f>'Grade Name'!C149</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F149" t="s">
+        <v>4</v>
+      </c>
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>'7427401': { validName: 'ECSTAR PETROL 0W-20-210 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f>'Grade Name'!A150</f>
+        <v>2968213</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="str">
+        <f>'Grade Name'!B150</f>
+        <v>HY.SERVO ENGINE OIL 5W-30-4x3.5L</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" t="str">
+        <f>'Grade Name'!C150</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>'2968213': { validName: 'HY.SERVO ENGINE OIL 5W-30-4x3.5L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f>'Grade Name'!A151</f>
+        <v>7477203</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="str">
+        <f>'Grade Name'!B151</f>
+        <v>HY.SERVO PRM.EO SM 5W-30-4X3 L</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" t="str">
+        <f>'Grade Name'!C151</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F151" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>'7477203': { validName: 'HY.SERVO PRM.EO SM 5W-30-4X3 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f>'Grade Name'!A152</f>
+        <v>7600203</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="str">
+        <f>'Grade Name'!B152</f>
+        <v>MGO 20W-40 - 4 X 3 L</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+      <c r="E152" t="str">
+        <f>'Grade Name'!C152</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F152" t="s">
+        <v>4</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>'7600203': { validName: 'MGO 20W-40 - 4 X 3 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f>'Grade Name'!A153</f>
+        <v>7688213</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="str">
+        <f>'Grade Name'!B153</f>
+        <v>MGO 5W-30-4x3.5L HDPE</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+      <c r="E153" t="str">
+        <f>'Grade Name'!C153</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F153" t="s">
+        <v>4</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>'7688213': { validName: 'MGO 5W-30-4x3.5L HDPE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f>'Grade Name'!A154</f>
+        <v>7688203</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="str">
+        <f>'Grade Name'!B154</f>
+        <v>MGO 5W-30-4 X 3 L</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
+      </c>
+      <c r="E154" t="str">
+        <f>'Grade Name'!C154</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>'7688203': { validName: 'MGO 5W-30-4 X 3 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f>'Grade Name'!A155</f>
+        <v>7427213</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="str">
+        <f>'Grade Name'!B155</f>
+        <v>ECSTAR PETROL 0W-20-4 X 3.5 L</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" t="str">
+        <f>'Grade Name'!C155</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F155" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>'7427213': { validName: 'ECSTAR PETROL 0W-20-4 X 3.5 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f>'Grade Name'!A156</f>
+        <v>2557195</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="str">
+        <f>'Grade Name'!B156</f>
+        <v>HYUNDAI S.GEAR OIL 75W-85-4X2.5L-HDPE</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" t="str">
+        <f>'Grade Name'!C156</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F156" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>'2557195': { validName: 'HYUNDAI S.GEAR OIL 75W-85-4X2.5L-HDPE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f>'Grade Name'!A157</f>
+        <v>7600184</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="str">
+        <f>'Grade Name'!B157</f>
+        <v>MGO 20W-40 - 20 X 1 L</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+      <c r="E157" t="str">
+        <f>'Grade Name'!C157</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F157" t="s">
+        <v>4</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>'7600184': { validName: 'MGO 20W-40 - 20 X 1 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f>'Grade Name'!A158</f>
+        <v>2540199</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="str">
+        <f>'Grade Name'!B158</f>
+        <v>MGGO 80W-90 - 4 X 2.1 L</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" t="str">
+        <f>'Grade Name'!C158</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F158" t="s">
+        <v>4</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>'2540199': { validName: 'MGGO 80W-90 - 4 X 2.1 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f>'Grade Name'!A159</f>
+        <v>7420213</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="str">
+        <f>'Grade Name'!B159</f>
+        <v>HY SERVO PETROL EO SN PLUS-4 X 3.5 L LUBE</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="str">
+        <f>'Grade Name'!C159</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F159" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>'7420213': { validName: 'HY SERVO PETROL EO SN PLUS-4 X 3.5 L LUBE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f>'Grade Name'!A160</f>
+        <v>7205222</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="str">
+        <f>'Grade Name'!B160</f>
+        <v>HYUNDAI SERVO SUPERIOR 0W30-4 X 4 L</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" t="str">
+        <f>'Grade Name'!C160</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F160" t="s">
+        <v>4</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>'7205222': { validName: 'HYUNDAI SERVO SUPERIOR 0W30-4 X 4 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f>'Grade Name'!A161</f>
+        <v>2933156</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="str">
+        <f>'Grade Name'!B161</f>
+        <v>SERVO HONDA SCOOTONXT-20 X 0.8 L</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" t="str">
+        <f>'Grade Name'!C161</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F161" t="s">
+        <v>4</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>'2933156': { validName: 'SERVO HONDA SCOOTONXT-20 X 0.8 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f>'Grade Name'!A162</f>
+        <v>7638234</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="str">
+        <f>'Grade Name'!B162</f>
+        <v>HYUNDAI SERVO CRDi PREM.ENG.OIL 4X5L-HDP</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" t="str">
+        <f>'Grade Name'!C162</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F162" t="s">
+        <v>4</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>'7638234': { validName: 'HYUNDAI SERVO CRDi PREM.ENG.OIL 4X5L-HDP', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f>'Grade Name'!A163</f>
+        <v>7470401</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="str">
+        <f>'Grade Name'!B163</f>
+        <v>S FLEET SUPREME CI4PLUS 15W-40-210 L LUBE</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" t="str">
+        <f>'Grade Name'!C163</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F163" t="s">
+        <v>4</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v>'7470401': { validName: 'S FLEET SUPREME CI4PLUS 15W-40-210 L LUBE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f>'Grade Name'!A164</f>
+        <v>7421234</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="str">
+        <f>'Grade Name'!B164</f>
+        <v>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" t="str">
+        <f>'Grade Name'!C164</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F164" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v>'7421234': { validName: 'HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f>'Grade Name'!A165</f>
+        <v>7470256</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="str">
+        <f>'Grade Name'!B165</f>
+        <v>SERVO FLEET SUPREME CI4 PLUS 15W-40-15 L LUBE</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" t="str">
+        <f>'Grade Name'!C165</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F165" t="s">
+        <v>4</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v>'7470256': { validName: 'SERVO FLEET SUPREME CI4 PLUS 15W-40-15 L LUBE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f>'Grade Name'!A166</f>
+        <v>7232184</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="str">
+        <f>'Grade Name'!B166</f>
+        <v>HYUNDAI SERVO COOLANT 50-20 X 1 L</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" t="str">
+        <f>'Grade Name'!C166</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F166" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v>'7232184': { validName: 'HYUNDAI SERVO COOLANT 50-20 X 1 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f>'Grade Name'!A167</f>
+        <v>2918175</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="str">
+        <f>'Grade Name'!B167</f>
+        <v>HYUNDAI SERVO BRAKE OIL - 20x1/2L - HDPE</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" t="str">
+        <f>'Grade Name'!C167</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F167" t="s">
+        <v>4</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v>'2918175': { validName: 'HYUNDAI SERVO BRAKE OIL - 20x1/2L - HDPE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f>'Grade Name'!A168</f>
+        <v>3725213</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="str">
+        <f>'Grade Name'!B168</f>
+        <v>SERVO SUPER PUMP SO 40-4x3.5L HDPE</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" t="str">
+        <f>'Grade Name'!C168</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F168" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v>'3725213': { validName: 'SERVO SUPER PUMP SO 40-4x3.5L HDPE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f>'Grade Name'!A169</f>
+        <v>7472184</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="str">
+        <f>'Grade Name'!B169</f>
+        <v>SERVO FLEET CF4 15W-40 - 20 X 1 L</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" t="str">
+        <f>'Grade Name'!C169</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F169" t="s">
+        <v>4</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v>'7472184': { validName: 'SERVO FLEET CF4 15W-40 - 20 X 1 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f>'Grade Name'!A170</f>
+        <v>7472234</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="str">
+        <f>'Grade Name'!B170</f>
+        <v>SERVO FLEET CF4 15W-40 - 4 X 5 L</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" t="str">
+        <f>'Grade Name'!C170</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F170" t="s">
+        <v>4</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v>'7472234': { validName: 'SERVO FLEET CF4 15W-40 - 4 X 5 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f>'Grade Name'!A171</f>
+        <v>7472203</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="str">
+        <f>'Grade Name'!B171</f>
+        <v>SERVO FLT CF4 15W-40-4 X 3 L</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" t="str">
+        <f>'Grade Name'!C171</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F171" t="s">
+        <v>4</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v>'7472203': { validName: 'SERVO FLT CF4 15W-40-4 X 3 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f>'Grade Name'!A172</f>
+        <v>7688401</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="str">
+        <f>'Grade Name'!B172</f>
+        <v>MGO 5W-30-210 L BRL</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" t="str">
+        <f>'Grade Name'!C172</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F172" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v>'7688401': { validName: 'MGO 5W-30-210 L BRL', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f>'Grade Name'!A173</f>
+        <v>7670213</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="str">
+        <f>'Grade Name'!B173</f>
+        <v>MGDO 15W-40 - 4 X 3.5 L</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" t="str">
+        <f>'Grade Name'!C173</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F173" t="s">
+        <v>4</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v>'7670213': { validName: 'MGDO 15W-40 - 4 X 3.5 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f>'Grade Name'!A174</f>
+        <v>7420222</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="str">
+        <f>'Grade Name'!B174</f>
+        <v>HY SERVO PETROL EO SN PLUS-4 X 4 L LUBE</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" t="str">
+        <f>'Grade Name'!C174</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F174" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v>'7420222': { validName: 'HY SERVO PETROL EO SN PLUS-4 X 4 L LUBE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f>'Grade Name'!A175</f>
+        <v>7420401</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="str">
+        <f>'Grade Name'!B175</f>
+        <v>HY SERVO PETROL EO SN PLUS-210 L</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" t="str">
+        <f>'Grade Name'!C175</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F175" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v>'7420401': { validName: 'HY SERVO PETROL EO SN PLUS-210 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f>'Grade Name'!A176</f>
+        <v>2927152</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="str">
+        <f>'Grade Name'!B176</f>
+        <v>SERVO HONDA JOSH-20 X 0.9 L</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" t="str">
+        <f>'Grade Name'!C176</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F176" t="s">
+        <v>4</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v>'2927152': { validName: 'SERVO HONDA JOSH-20 X 0.9 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f>'Grade Name'!A177</f>
+        <v>7472401</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="str">
+        <f>'Grade Name'!B177</f>
+        <v>SERVO FLT CF4 15W-40 - 210 L</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" t="str">
+        <f>'Grade Name'!C177</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F177" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v>'7472401': { validName: 'SERVO FLT CF4 15W-40 - 210 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f>'Grade Name'!A178</f>
+        <v>7427183</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="str">
+        <f>'Grade Name'!B178</f>
+        <v>ECSTAR PETROL 0W-20-1 L</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" t="str">
+        <f>'Grade Name'!C178</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F178" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v>'7427183': { validName: 'ECSTAR PETROL 0W-20-1 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f>'Grade Name'!A179</f>
+        <v>2953213</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="str">
+        <f>'Grade Name'!B179</f>
+        <v>HY.SERVO SYNTH PLUS 5W-30-4x3.5L HDPE</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" t="str">
+        <f>'Grade Name'!C179</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F179" t="s">
+        <v>4</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v>'2953213': { validName: 'HY.SERVO SYNTH PLUS 5W-30-4x3.5L HDPE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f>'Grade Name'!A180</f>
+        <v>7470184</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="str">
+        <f>'Grade Name'!B180</f>
+        <v>S FLEET SUPREME CI4PLUS 15W-40-20 X 1 L LUBE</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" t="str">
+        <f>'Grade Name'!C180</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F180" t="s">
+        <v>4</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v>'7470184': { validName: 'S FLEET SUPREME CI4PLUS 15W-40-20 X 1 L LUBE', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f>'Grade Name'!A181</f>
+        <v>2927184</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="str">
+        <f>'Grade Name'!B181</f>
+        <v>SERVO HONDA JOSH-20 X 1 L</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" t="str">
+        <f>'Grade Name'!C181</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F181" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v>'2927184': { validName: 'SERVO HONDA JOSH-20 X 1 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f>'Grade Name'!A182</f>
+        <v>7209213</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="str">
+        <f>'Grade Name'!B182</f>
+        <v>HY SERVO SYNTH 0W-30 SP/C3-4 X 3.5 L</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" t="str">
+        <f>'Grade Name'!C182</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F182" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" t="str">
+        <f t="shared" si="2"/>
+        <v>'7209213': { validName: 'HY SERVO SYNTH 0W-30 SP/C3-4 X 3.5 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f>'Grade Name'!A183</f>
+        <v>7208271</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="str">
+        <f>'Grade Name'!B183</f>
+        <v>SERVO SUPERIOR EO 0W20 SN PLUS-50 L</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" t="str">
+        <f>'Grade Name'!C183</f>
+        <v>Bronze</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G183" t="str">
+        <f>_xlfn.CONCAT("'",A183,"'",B183,C183,D183,E183,F183)</f>
+        <v>'7208271': { validName: 'SERVO SUPERIOR EO 0W20 SN PLUS-50 L', grade: 'Bronze }</v>
+      </c>
+      <c r="H183" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="1"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="1"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="1"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="1"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2778,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0873C9DF-390B-4BA8-BCB0-6C176D59D084}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,7 +6128,7 @@
     <col min="3" max="3" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -2801,8 +6138,11 @@
       <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>7434253</v>
       </c>
@@ -2812,8 +6152,11 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>7436250</v>
       </c>
@@ -2823,8 +6166,11 @@
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>7434256</v>
       </c>
@@ -2834,8 +6180,11 @@
       <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>7436256</v>
       </c>
@@ -2845,8 +6194,11 @@
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>7436253</v>
       </c>
@@ -2856,8 +6208,11 @@
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>7436184</v>
       </c>
@@ -2867,8 +6222,11 @@
       <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2967184</v>
       </c>
@@ -2878,8 +6236,11 @@
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2967213</v>
       </c>
@@ -2889,8 +6250,11 @@
       <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2967111</v>
       </c>
@@ -2900,8 +6264,11 @@
       <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>7271213</v>
       </c>
@@ -2911,8 +6278,11 @@
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2914175</v>
       </c>
@@ -2922,8 +6292,11 @@
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2914165</v>
       </c>
@@ -2933,8 +6306,11 @@
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>7429184</v>
       </c>
@@ -2944,8 +6320,11 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>7429240</v>
       </c>
@@ -2955,8 +6334,11 @@
       <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>7429297</v>
       </c>
@@ -2966,8 +6348,11 @@
       <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>7430240</v>
       </c>
@@ -2977,8 +6362,11 @@
       <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>7430297</v>
       </c>
@@ -2988,8 +6376,11 @@
       <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2829230</v>
       </c>
@@ -2999,8 +6390,11 @@
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2828230</v>
       </c>
@@ -3010,8 +6404,11 @@
       <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>2828229</v>
       </c>
@@ -3021,8 +6418,11 @@
       <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2971225</v>
       </c>
@@ -3032,8 +6432,11 @@
       <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2971195</v>
       </c>
@@ -3043,8 +6446,11 @@
       <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>7584401</v>
       </c>
@@ -3054,8 +6460,11 @@
       <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7584185</v>
       </c>
@@ -3065,8 +6474,11 @@
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>7584175</v>
       </c>
@@ -3076,8 +6488,11 @@
       <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>7584184</v>
       </c>
@@ -3087,8 +6502,11 @@
       <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>7607184</v>
       </c>
@@ -3098,8 +6516,11 @@
       <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2825185</v>
       </c>
@@ -3109,8 +6530,11 @@
       <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2825258</v>
       </c>
@@ -3120,8 +6544,11 @@
       <c r="C30" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>7275111</v>
       </c>
@@ -3131,8 +6558,11 @@
       <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2824184</v>
       </c>
@@ -3142,8 +6572,11 @@
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>7211213</v>
       </c>
@@ -3153,426 +6586,2113 @@
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>3725213</v>
+        <v>7330242</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>7330242</v>
+        <v>7330265</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>7330265</v>
+        <v>7701341</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>7701341</v>
+        <v>7705303</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>7705303</v>
+        <v>7705313</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>7705313</v>
+        <v>7705327</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>7705327</v>
+        <v>7705337</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>7705337</v>
+        <v>7705339</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>7705339</v>
+        <v>7705340</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>7705340</v>
+        <v>7705341</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>7705341</v>
+        <v>7727303</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>7727303</v>
+        <v>7727313</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>7727313</v>
+        <v>7727327</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>7727327</v>
+        <v>7727337</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>7727337</v>
+        <v>7727341</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>7727341</v>
+        <v>7849303</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>7849303</v>
+        <v>7849313</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>7849313</v>
+        <v>7849327</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>7849327</v>
+        <v>7849337</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>7849337</v>
+        <v>7849340</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>7849340</v>
+        <v>7849341</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>7849341</v>
+        <v>7849343</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>7849343</v>
+        <v>7849344</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>7849344</v>
+        <v>7903303</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>7903303</v>
+        <v>7903313</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>7903313</v>
+        <v>7903327</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>7903327</v>
+        <v>7903337</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>7903337</v>
+        <v>7903339</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>7903339</v>
+        <v>7903343</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>7903343</v>
+        <v>7903344</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>7903344</v>
+        <v>7903341</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>7903341</v>
+        <v>7742341</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>7742341</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>80</v>
+      <c r="D65" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>7903311</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
+      <c r="D66" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>7705451</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>7742451</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <v>3040265</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>3006401</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>3006265</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>3006403</v>
+        <v>3006401</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>3006234</v>
+        <v>3006265</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D71" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>3006403</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>3006234</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>2502265</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>7485174</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>7485242</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>7485265</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>7485234</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>2931184</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>2502184</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>2900145</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>7577234</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>2889156</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>2900184</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>2924229</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>7577184</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>7489253</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>7577265</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>4906234</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>7577401</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>7489241</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>7489250</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>7485184</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>2502234</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>2900125</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>7511251</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>7577242</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>7556184</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>4906184</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>1404184</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>1404234</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>7577251</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>7511184</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>2896150</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>2896185</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>7515265</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>7515401</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>2900175</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>7485251</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>7651265</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>7586265</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>7511401</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>7577174</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>7556265</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>7577256</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>7489234</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>7515240</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>7556253</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>7485401</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>1404265</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>7489265</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>7556250</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>7489184</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>7556203</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>2502401</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>7556241</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>4906175</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>7511265</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>7515184</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>7511234</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>7511269</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>2900103</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>2889155</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>7515234</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>7511240</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>2924184</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>1404242</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>2502174</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>2900174</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>3057265</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>7489203</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>7577240</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>7485173</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>7485183</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>7556234</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>4950234</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>7586242</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>7472256</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>7427401</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>2968213</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>7477203</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>7600203</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>7688213</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>7688203</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>7427213</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>2557195</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>7600184</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>2540199</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>7420213</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>7205222</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>2933156</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>7638234</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>7470401</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>7421234</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>7470256</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>7232184</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>2918175</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>3725213</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>7472184</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>7472234</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>7472203</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>7688401</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>7670213</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>7420222</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>7420401</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>2927152</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>7472401</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>7427183</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>2953213</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>7470184</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>2927184</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>7209213</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>7208271</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E183" xr:uid="{0873C9DF-390B-4BA8-BCB0-6C176D59D084}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Grade/Grade_code.xlsx
+++ b/Grade/Grade_code.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\alh\Grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F54A653-4F24-445A-8DDF-0A351B7663C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A315159-7F80-44E1-8908-AB8711B0925F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77AA2402-4045-4207-9CD2-03A129DC7A0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{77AA2402-4045-4207-9CD2-03A129DC7A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Code" sheetId="1" r:id="rId1"/>
     <sheet name="Grade Name" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grade Name'!$A$1:$E$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grade Name'!$A$1:$E$184</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="212">
   <si>
     <t>: { validName: '</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>Bronze</t>
+  </si>
+  <si>
+    <t>SERVO FUTURA G PLUS 5W-30-4 X 3 L PROMO</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -739,36 +742,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF979991"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF979991"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF979991"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -777,18 +756,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04DA7E0-4435-4F76-A7D5-E00B58F67F1F}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,21 +1928,21 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f>'Grade Name'!A32</f>
+        <f>'Grade Name'!A33</f>
         <v>2824184</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="str">
-        <f>'Grade Name'!B32</f>
+        <f>'Grade Name'!B33</f>
         <v>SERVO 4T GREEN-20 X 1 L</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
       </c>
       <c r="E32" t="str">
-        <f>'Grade Name'!C32</f>
+        <f>'Grade Name'!C33</f>
         <v>Green</v>
       </c>
       <c r="F32" t="s">
@@ -1979,21 +1955,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f>'Grade Name'!A33</f>
+        <f>'Grade Name'!A34</f>
         <v>7211213</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C33" t="str">
-        <f>'Grade Name'!B33</f>
+        <f>'Grade Name'!B34</f>
         <v>SERVO GREENMILE-4 X 3.5 L</v>
       </c>
       <c r="D33" t="s">
         <v>2</v>
       </c>
       <c r="E33" t="str">
-        <f>'Grade Name'!C33</f>
+        <f>'Grade Name'!C34</f>
         <v>Green</v>
       </c>
       <c r="F33" t="s">
@@ -2006,21 +1982,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f>'Grade Name'!A34</f>
+        <f>'Grade Name'!A35</f>
         <v>7330242</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C34" t="str">
-        <f>'Grade Name'!B34</f>
+        <f>'Grade Name'!B35</f>
         <v>IOC CLEARBLUE-10 L</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f>'Grade Name'!C34</f>
+        <f>'Grade Name'!C35</f>
         <v>DEF</v>
       </c>
       <c r="F34" t="s">
@@ -2033,21 +2009,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f>'Grade Name'!A35</f>
+        <f>'Grade Name'!A36</f>
         <v>7330265</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="str">
-        <f>'Grade Name'!B35</f>
+        <f>'Grade Name'!B36</f>
         <v>IOC CLEARBLUE-20 L</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35" t="str">
-        <f>'Grade Name'!C35</f>
+        <f>'Grade Name'!C36</f>
         <v>DEF</v>
       </c>
       <c r="F35" t="s">
@@ -2060,21 +2036,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f>'Grade Name'!A36</f>
+        <f>'Grade Name'!A37</f>
         <v>7701341</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C36" t="str">
-        <f>'Grade Name'!B36</f>
+        <f>'Grade Name'!B37</f>
         <v>SERVO GREASE MP-20 KG BUC</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36" t="str">
-        <f>'Grade Name'!C36</f>
+        <f>'Grade Name'!C37</f>
         <v>Grease</v>
       </c>
       <c r="F36" t="s">
@@ -2087,21 +2063,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f>'Grade Name'!A37</f>
+        <f>'Grade Name'!A38</f>
         <v>7705303</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C37" t="str">
-        <f>'Grade Name'!B37</f>
+        <f>'Grade Name'!B38</f>
         <v>SERVO GREASE MP 3 - 20 X 1/2 KG CTN</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37" t="str">
-        <f>'Grade Name'!C37</f>
+        <f>'Grade Name'!C38</f>
         <v>Grease</v>
       </c>
       <c r="F37" t="s">
@@ -2114,21 +2090,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f>'Grade Name'!A38</f>
+        <f>'Grade Name'!A39</f>
         <v>7705313</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="str">
-        <f>'Grade Name'!B38</f>
+        <f>'Grade Name'!B39</f>
         <v>SERVO GREASE MP 3 - 10 X 1 KG CTN</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
       <c r="E38" t="str">
-        <f>'Grade Name'!C38</f>
+        <f>'Grade Name'!C39</f>
         <v>Grease</v>
       </c>
       <c r="F38" t="s">
@@ -2141,21 +2117,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f>'Grade Name'!A39</f>
+        <f>'Grade Name'!A40</f>
         <v>7705327</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C39" t="str">
-        <f>'Grade Name'!B39</f>
+        <f>'Grade Name'!B40</f>
         <v>SERVOGREASE MP 3-6X2 KG</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
       <c r="E39" t="str">
-        <f>'Grade Name'!C39</f>
+        <f>'Grade Name'!C40</f>
         <v>Grease</v>
       </c>
       <c r="F39" t="s">
@@ -2168,21 +2144,21 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f>'Grade Name'!A40</f>
+        <f>'Grade Name'!A41</f>
         <v>7705337</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="str">
-        <f>'Grade Name'!B40</f>
+        <f>'Grade Name'!B41</f>
         <v>SERVOGREASE MP 3-4X3 KG</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
       <c r="E40" t="str">
-        <f>'Grade Name'!C40</f>
+        <f>'Grade Name'!C41</f>
         <v>Grease</v>
       </c>
       <c r="F40" t="s">
@@ -2195,21 +2171,21 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f>'Grade Name'!A41</f>
+        <f>'Grade Name'!A42</f>
         <v>7705339</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="str">
-        <f>'Grade Name'!B41</f>
+        <f>'Grade Name'!B42</f>
         <v>SERVOGREASE MP 3 - 5 KG BUC</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
       <c r="E41" t="str">
-        <f>'Grade Name'!C41</f>
+        <f>'Grade Name'!C42</f>
         <v>Grease</v>
       </c>
       <c r="F41" t="s">
@@ -2222,21 +2198,21 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f>'Grade Name'!A42</f>
+        <f>'Grade Name'!A43</f>
         <v>7705340</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C42" t="str">
-        <f>'Grade Name'!B42</f>
+        <f>'Grade Name'!B43</f>
         <v>SERVOGREASE MP 3-2 X 5 KG</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f>'Grade Name'!C42</f>
+        <f>'Grade Name'!C43</f>
         <v>Grease</v>
       </c>
       <c r="F42" t="s">
@@ -2249,21 +2225,21 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f>'Grade Name'!A43</f>
+        <f>'Grade Name'!A44</f>
         <v>7705341</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C43" t="str">
-        <f>'Grade Name'!B43</f>
+        <f>'Grade Name'!B44</f>
         <v>SERVOGREASE MP 3 -20 KG BUC</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
       <c r="E43" t="str">
-        <f>'Grade Name'!C43</f>
+        <f>'Grade Name'!C44</f>
         <v>Grease</v>
       </c>
       <c r="F43" t="s">
@@ -2276,21 +2252,21 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f>'Grade Name'!A44</f>
+        <f>'Grade Name'!A45</f>
         <v>7727303</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="str">
-        <f>'Grade Name'!B44</f>
+        <f>'Grade Name'!B45</f>
         <v>SERVO GEM RR 3 - 20 X 1/2 KG CTN</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
       <c r="E44" t="str">
-        <f>'Grade Name'!C44</f>
+        <f>'Grade Name'!C45</f>
         <v>Grease</v>
       </c>
       <c r="F44" t="s">
@@ -2303,21 +2279,21 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f>'Grade Name'!A45</f>
+        <f>'Grade Name'!A46</f>
         <v>7727313</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C45" t="str">
-        <f>'Grade Name'!B45</f>
+        <f>'Grade Name'!B46</f>
         <v>SERVO GEM RR 3 - 10 X 1 KG CTN</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
       <c r="E45" t="str">
-        <f>'Grade Name'!C45</f>
+        <f>'Grade Name'!C46</f>
         <v>Grease</v>
       </c>
       <c r="F45" t="s">
@@ -2330,21 +2306,21 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f>'Grade Name'!A46</f>
+        <f>'Grade Name'!A47</f>
         <v>7727327</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C46" t="str">
-        <f>'Grade Name'!B46</f>
+        <f>'Grade Name'!B47</f>
         <v>SERVO GEM RR 3-6X2 KG TUB</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <f>'Grade Name'!C46</f>
+        <f>'Grade Name'!C47</f>
         <v>Grease</v>
       </c>
       <c r="F46" t="s">
@@ -2357,21 +2333,21 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f>'Grade Name'!A47</f>
+        <f>'Grade Name'!A48</f>
         <v>7727337</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="str">
-        <f>'Grade Name'!B47</f>
+        <f>'Grade Name'!B48</f>
         <v>SERVO GEM RR 3-4X3 KG</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
       <c r="E47" t="str">
-        <f>'Grade Name'!C47</f>
+        <f>'Grade Name'!C48</f>
         <v>Grease</v>
       </c>
       <c r="F47" t="s">
@@ -2384,21 +2360,21 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f>'Grade Name'!A48</f>
+        <f>'Grade Name'!A49</f>
         <v>7727341</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C48" t="str">
-        <f>'Grade Name'!B48</f>
+        <f>'Grade Name'!B49</f>
         <v>SERVO GEM RR 3 - 20 KG. BUC</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
       </c>
       <c r="E48" t="str">
-        <f>'Grade Name'!C48</f>
+        <f>'Grade Name'!C49</f>
         <v>Grease</v>
       </c>
       <c r="F48" t="s">
@@ -2411,21 +2387,21 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f>'Grade Name'!A49</f>
+        <f>'Grade Name'!A50</f>
         <v>7849303</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C49" t="str">
-        <f>'Grade Name'!B49</f>
+        <f>'Grade Name'!B50</f>
         <v>SERVO LONG LIFE GREASE-20 X 1/2 KG</v>
       </c>
       <c r="D49" t="s">
         <v>2</v>
       </c>
       <c r="E49" t="str">
-        <f>'Grade Name'!C49</f>
+        <f>'Grade Name'!C50</f>
         <v>Grease</v>
       </c>
       <c r="F49" t="s">
@@ -2438,21 +2414,21 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f>'Grade Name'!A50</f>
+        <f>'Grade Name'!A51</f>
         <v>7849313</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="str">
-        <f>'Grade Name'!B50</f>
+        <f>'Grade Name'!B51</f>
         <v>SERVO LONG LIFE GREASE-10X1 KG TUB</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
       </c>
       <c r="E50" t="str">
-        <f>'Grade Name'!C50</f>
+        <f>'Grade Name'!C51</f>
         <v>Grease</v>
       </c>
       <c r="F50" t="s">
@@ -2465,21 +2441,21 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f>'Grade Name'!A51</f>
+        <f>'Grade Name'!A52</f>
         <v>7849327</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C51" t="str">
-        <f>'Grade Name'!B51</f>
+        <f>'Grade Name'!B52</f>
         <v>SERVO LONG LIFE GREASE-6X2 KG TUB</v>
       </c>
       <c r="D51" t="s">
         <v>2</v>
       </c>
       <c r="E51" t="str">
-        <f>'Grade Name'!C51</f>
+        <f>'Grade Name'!C52</f>
         <v>Grease</v>
       </c>
       <c r="F51" t="s">
@@ -2492,21 +2468,21 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f>'Grade Name'!A52</f>
+        <f>'Grade Name'!A53</f>
         <v>7849337</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="str">
-        <f>'Grade Name'!B52</f>
+        <f>'Grade Name'!B53</f>
         <v>SERVO LONG LIFE GREASE-4X3 KG TUB</v>
       </c>
       <c r="D52" t="s">
         <v>2</v>
       </c>
       <c r="E52" t="str">
-        <f>'Grade Name'!C52</f>
+        <f>'Grade Name'!C53</f>
         <v>Grease</v>
       </c>
       <c r="F52" t="s">
@@ -2519,21 +2495,21 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f>'Grade Name'!A53</f>
+        <f>'Grade Name'!A54</f>
         <v>7849340</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="str">
-        <f>'Grade Name'!B53</f>
+        <f>'Grade Name'!B54</f>
         <v>SERVO LONG LIFE GREASE-2 X 5 KG</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
       </c>
       <c r="E53" t="str">
-        <f>'Grade Name'!C53</f>
+        <f>'Grade Name'!C54</f>
         <v>Grease</v>
       </c>
       <c r="F53" t="s">
@@ -2546,21 +2522,21 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f>'Grade Name'!A54</f>
+        <f>'Grade Name'!A55</f>
         <v>7849341</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C54" t="str">
-        <f>'Grade Name'!B54</f>
+        <f>'Grade Name'!B55</f>
         <v>SERVO LONG LIFE GREASE-20 KG</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
       </c>
       <c r="E54" t="str">
-        <f>'Grade Name'!C54</f>
+        <f>'Grade Name'!C55</f>
         <v>Grease</v>
       </c>
       <c r="F54" t="s">
@@ -2573,21 +2549,21 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f>'Grade Name'!A55</f>
+        <f>'Grade Name'!A56</f>
         <v>7849343</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C55" t="str">
-        <f>'Grade Name'!B55</f>
+        <f>'Grade Name'!B56</f>
         <v>SERVO LONG LIFE GREASE-7 KG</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
       </c>
       <c r="E55" t="str">
-        <f>'Grade Name'!C55</f>
+        <f>'Grade Name'!C56</f>
         <v>Grease</v>
       </c>
       <c r="F55" t="s">
@@ -2600,21 +2576,21 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f>'Grade Name'!A56</f>
+        <f>'Grade Name'!A57</f>
         <v>7849344</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="str">
-        <f>'Grade Name'!B56</f>
+        <f>'Grade Name'!B57</f>
         <v>SERVO LONG LIFE GREASE-10 KG BUC</v>
       </c>
       <c r="D56" t="s">
         <v>2</v>
       </c>
       <c r="E56" t="str">
-        <f>'Grade Name'!C56</f>
+        <f>'Grade Name'!C57</f>
         <v>Grease</v>
       </c>
       <c r="F56" t="s">
@@ -2627,21 +2603,21 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f>'Grade Name'!A57</f>
+        <f>'Grade Name'!A58</f>
         <v>7903303</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C57" t="str">
-        <f>'Grade Name'!B57</f>
+        <f>'Grade Name'!B58</f>
         <v>SERVOGREASE MIRACLE 3-20 X 1/2 KG</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
       </c>
       <c r="E57" t="str">
-        <f>'Grade Name'!C57</f>
+        <f>'Grade Name'!C58</f>
         <v>Grease</v>
       </c>
       <c r="F57" t="s">
@@ -2654,21 +2630,21 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f>'Grade Name'!A58</f>
+        <f>'Grade Name'!A59</f>
         <v>7903313</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C58" t="str">
-        <f>'Grade Name'!B58</f>
+        <f>'Grade Name'!B59</f>
         <v>SERVOGREASE MIRACLE 3-10 X 1 KG</v>
       </c>
       <c r="D58" t="s">
         <v>2</v>
       </c>
       <c r="E58" t="str">
-        <f>'Grade Name'!C58</f>
+        <f>'Grade Name'!C59</f>
         <v>Grease</v>
       </c>
       <c r="F58" t="s">
@@ -2681,21 +2657,21 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f>'Grade Name'!A59</f>
+        <f>'Grade Name'!A60</f>
         <v>7903327</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="str">
-        <f>'Grade Name'!B59</f>
+        <f>'Grade Name'!B60</f>
         <v>SERVOGREASE MIRACLE 3-6 X 2 KG</v>
       </c>
       <c r="D59" t="s">
         <v>2</v>
       </c>
       <c r="E59" t="str">
-        <f>'Grade Name'!C59</f>
+        <f>'Grade Name'!C60</f>
         <v>Grease</v>
       </c>
       <c r="F59" t="s">
@@ -2708,21 +2684,21 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f>'Grade Name'!A60</f>
+        <f>'Grade Name'!A61</f>
         <v>7903337</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C60" t="str">
-        <f>'Grade Name'!B60</f>
+        <f>'Grade Name'!B61</f>
         <v>SERVOGREASE MIRACLE 3-4 X 3 KG</v>
       </c>
       <c r="D60" t="s">
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <f>'Grade Name'!C60</f>
+        <f>'Grade Name'!C61</f>
         <v>Grease</v>
       </c>
       <c r="F60" t="s">
@@ -2735,21 +2711,21 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f>'Grade Name'!A61</f>
+        <f>'Grade Name'!A62</f>
         <v>7903339</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C61" t="str">
-        <f>'Grade Name'!B61</f>
+        <f>'Grade Name'!B62</f>
         <v xml:space="preserve">SERVOGREASE MIRACLE 3-5 KG </v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
       </c>
       <c r="E61" t="str">
-        <f>'Grade Name'!C61</f>
+        <f>'Grade Name'!C62</f>
         <v>Grease</v>
       </c>
       <c r="F61" t="s">
@@ -2762,21 +2738,21 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f>'Grade Name'!A62</f>
+        <f>'Grade Name'!A63</f>
         <v>7903343</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="str">
-        <f>'Grade Name'!B62</f>
+        <f>'Grade Name'!B63</f>
         <v xml:space="preserve">SERVOGREASE MIRACLE 3-7 KG </v>
       </c>
       <c r="D62" t="s">
         <v>2</v>
       </c>
       <c r="E62" t="str">
-        <f>'Grade Name'!C62</f>
+        <f>'Grade Name'!C63</f>
         <v>Grease</v>
       </c>
       <c r="F62" t="s">
@@ -2789,21 +2765,21 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f>'Grade Name'!A63</f>
+        <f>'Grade Name'!A64</f>
         <v>7903344</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C63" t="str">
-        <f>'Grade Name'!B63</f>
+        <f>'Grade Name'!B64</f>
         <v xml:space="preserve">SERVOGREASE MIRACLE 3-10 KG BUC </v>
       </c>
       <c r="D63" t="s">
         <v>2</v>
       </c>
       <c r="E63" t="str">
-        <f>'Grade Name'!C63</f>
+        <f>'Grade Name'!C64</f>
         <v>Grease</v>
       </c>
       <c r="F63" t="s">
@@ -2816,21 +2792,21 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f>'Grade Name'!A64</f>
+        <f>'Grade Name'!A65</f>
         <v>7903341</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" t="str">
-        <f>'Grade Name'!B64</f>
+        <f>'Grade Name'!B65</f>
         <v>SERVOGREASE MIRACLE 3-20 KG</v>
       </c>
       <c r="D64" t="s">
         <v>2</v>
       </c>
       <c r="E64" t="str">
-        <f>'Grade Name'!C64</f>
+        <f>'Grade Name'!C65</f>
         <v>Grease</v>
       </c>
       <c r="F64" t="s">
@@ -2843,21 +2819,21 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f>'Grade Name'!A65</f>
+        <f>'Grade Name'!A66</f>
         <v>7742341</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="str">
-        <f>'Grade Name'!B65</f>
+        <f>'Grade Name'!B66</f>
         <v>SERVOGEM EP 2-20 KG BUC</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
       </c>
       <c r="E65" t="str">
-        <f>'Grade Name'!C65</f>
+        <f>'Grade Name'!C66</f>
         <v>Grease</v>
       </c>
       <c r="F65" t="s">
@@ -2870,21 +2846,21 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f>'Grade Name'!A66</f>
+        <f>'Grade Name'!A67</f>
         <v>7903311</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C66" t="str">
-        <f>'Grade Name'!B66</f>
+        <f>'Grade Name'!B67</f>
         <v>SERVOGREASE MIRACLE 3-1 KG GRES</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
       </c>
       <c r="E66" t="str">
-        <f>'Grade Name'!C66</f>
+        <f>'Grade Name'!C67</f>
         <v>Grease</v>
       </c>
       <c r="F66" t="s">
@@ -2897,21 +2873,21 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f>'Grade Name'!A67</f>
+        <f>'Grade Name'!A68</f>
         <v>7705451</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C67" t="str">
-        <f>'Grade Name'!B67</f>
+        <f>'Grade Name'!B68</f>
         <v>SERVOGREASE MP 3 - 182 KG DRM</v>
       </c>
       <c r="D67" t="s">
         <v>2</v>
       </c>
       <c r="E67" t="str">
-        <f>'Grade Name'!C67</f>
+        <f>'Grade Name'!C68</f>
         <v>Grease</v>
       </c>
       <c r="F67" t="s">
@@ -2924,21 +2900,21 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f>'Grade Name'!A68</f>
+        <f>'Grade Name'!A69</f>
         <v>7742451</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="str">
-        <f>'Grade Name'!B68</f>
+        <f>'Grade Name'!B69</f>
         <v>SERVOGEM EP 2-182 KG DRM</v>
       </c>
       <c r="D68" t="s">
         <v>2</v>
       </c>
       <c r="E68" t="str">
-        <f>'Grade Name'!C68</f>
+        <f>'Grade Name'!C69</f>
         <v>Grease</v>
       </c>
       <c r="F68" t="s">
@@ -2951,21 +2927,21 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f>'Grade Name'!A69</f>
+        <f>'Grade Name'!A70</f>
         <v>3040265</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C69" t="str">
-        <f>'Grade Name'!B69</f>
+        <f>'Grade Name'!B70</f>
         <v>SERVOHYDRASHAKTI 68-20 L</v>
       </c>
       <c r="D69" t="s">
         <v>2</v>
       </c>
       <c r="E69" t="str">
-        <f>'Grade Name'!C69</f>
+        <f>'Grade Name'!C70</f>
         <v>Hydraulic</v>
       </c>
       <c r="F69" t="s">
@@ -2978,21 +2954,21 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f>'Grade Name'!A70</f>
+        <f>'Grade Name'!A71</f>
         <v>3006401</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C70" t="str">
-        <f>'Grade Name'!B70</f>
+        <f>'Grade Name'!B71</f>
         <v>SERVOSYSTEM 68 - 210L BRL</v>
       </c>
       <c r="D70" t="s">
         <v>2</v>
       </c>
       <c r="E70" t="str">
-        <f>'Grade Name'!C70</f>
+        <f>'Grade Name'!C71</f>
         <v>Hydraulic</v>
       </c>
       <c r="F70" t="s">
@@ -3005,21 +2981,21 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f>'Grade Name'!A71</f>
+        <f>'Grade Name'!A72</f>
         <v>3006265</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="str">
-        <f>'Grade Name'!B71</f>
+        <f>'Grade Name'!B72</f>
         <v>SERVOSYSTEM 68-20L BUC</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
       </c>
       <c r="E71" t="str">
-        <f>'Grade Name'!C71</f>
+        <f>'Grade Name'!C72</f>
         <v>Hydraulic</v>
       </c>
       <c r="F71" t="s">
@@ -3032,21 +3008,21 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f>'Grade Name'!A72</f>
+        <f>'Grade Name'!A73</f>
         <v>3006403</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" t="str">
-        <f>'Grade Name'!B72</f>
+        <f>'Grade Name'!B73</f>
         <v>SERVOSYSTEM 68-210 L HD</v>
       </c>
       <c r="D72" t="s">
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <f>'Grade Name'!C72</f>
+        <f>'Grade Name'!C73</f>
         <v>Hydraulic</v>
       </c>
       <c r="F72" t="s">
@@ -3059,21 +3035,21 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f>'Grade Name'!A73</f>
+        <f>'Grade Name'!A74</f>
         <v>3006234</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C73" t="str">
-        <f>'Grade Name'!B73</f>
+        <f>'Grade Name'!B74</f>
         <v>SERVOSYSTEM 68-4x5L - HDPE</v>
       </c>
       <c r="D73" t="s">
         <v>2</v>
       </c>
       <c r="E73" t="str">
-        <f>'Grade Name'!C73</f>
+        <f>'Grade Name'!C74</f>
         <v>Hydraulic</v>
       </c>
       <c r="F73" t="s">
@@ -3086,21 +3062,21 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f>'Grade Name'!A74</f>
+        <f>'Grade Name'!A75</f>
         <v>2502265</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="str">
-        <f>'Grade Name'!B74</f>
+        <f>'Grade Name'!B75</f>
         <v>SERVO GEAR HP 90-20L BUC</v>
       </c>
       <c r="D74" t="s">
         <v>2</v>
       </c>
       <c r="E74" t="str">
-        <f>'Grade Name'!C74</f>
+        <f>'Grade Name'!C75</f>
         <v>Silver</v>
       </c>
       <c r="F74" t="s">
@@ -3113,21 +3089,21 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f>'Grade Name'!A75</f>
+        <f>'Grade Name'!A76</f>
         <v>7485174</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" t="str">
-        <f>'Grade Name'!B75</f>
+        <f>'Grade Name'!B76</f>
         <v>SERVO SUPER 20W-40 MG-40X1/2L</v>
       </c>
       <c r="D75" t="s">
         <v>2</v>
       </c>
       <c r="E75" t="str">
-        <f>'Grade Name'!C75</f>
+        <f>'Grade Name'!C76</f>
         <v>Silver</v>
       </c>
       <c r="F75" t="s">
@@ -3140,21 +3116,21 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f>'Grade Name'!A76</f>
+        <f>'Grade Name'!A77</f>
         <v>7485242</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="str">
-        <f>'Grade Name'!B76</f>
+        <f>'Grade Name'!B77</f>
         <v>SERVO SUPER 20W-40 MG-10 L</v>
       </c>
       <c r="D76" t="s">
         <v>2</v>
       </c>
       <c r="E76" t="str">
-        <f>'Grade Name'!C76</f>
+        <f>'Grade Name'!C77</f>
         <v>Silver</v>
       </c>
       <c r="F76" t="s">
@@ -3167,21 +3143,21 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f>'Grade Name'!A77</f>
+        <f>'Grade Name'!A78</f>
         <v>7485265</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="str">
-        <f>'Grade Name'!B77</f>
+        <f>'Grade Name'!B78</f>
         <v>SERVO SUPER 20W-40 MG-20 L</v>
       </c>
       <c r="D77" t="s">
         <v>2</v>
       </c>
       <c r="E77" t="str">
-        <f>'Grade Name'!C77</f>
+        <f>'Grade Name'!C78</f>
         <v>Silver</v>
       </c>
       <c r="F77" t="s">
@@ -3194,21 +3170,21 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f>'Grade Name'!A78</f>
+        <f>'Grade Name'!A79</f>
         <v>7485234</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C78" t="str">
-        <f>'Grade Name'!B78</f>
+        <f>'Grade Name'!B79</f>
         <v>SERVO SUPER 20W-40 MG-4x5L - HDPE</v>
       </c>
       <c r="D78" t="s">
         <v>2</v>
       </c>
       <c r="E78" t="str">
-        <f>'Grade Name'!C78</f>
+        <f>'Grade Name'!C79</f>
         <v>Silver</v>
       </c>
       <c r="F78" t="s">
@@ -3221,21 +3197,21 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f>'Grade Name'!A79</f>
+        <f>'Grade Name'!A80</f>
         <v>2931184</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C79" t="str">
-        <f>'Grade Name'!B79</f>
+        <f>'Grade Name'!B80</f>
         <v>SERVO 4T 20W-50-20 X 1 L</v>
       </c>
       <c r="D79" t="s">
         <v>2</v>
       </c>
       <c r="E79" t="str">
-        <f>'Grade Name'!C79</f>
+        <f>'Grade Name'!C80</f>
         <v>Silver</v>
       </c>
       <c r="F79" t="s">
@@ -3248,21 +3224,21 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f>'Grade Name'!A80</f>
+        <f>'Grade Name'!A81</f>
         <v>2502184</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="str">
-        <f>'Grade Name'!B80</f>
+        <f>'Grade Name'!B81</f>
         <v>SERVO GEAR HP 90-20X1L-HDPE</v>
       </c>
       <c r="D80" t="s">
         <v>2</v>
       </c>
       <c r="E80" t="str">
-        <f>'Grade Name'!C80</f>
+        <f>'Grade Name'!C81</f>
         <v>Silver</v>
       </c>
       <c r="F80" t="s">
@@ -3275,21 +3251,21 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f>'Grade Name'!A81</f>
+        <f>'Grade Name'!A82</f>
         <v>2900145</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C81" t="str">
-        <f>'Grade Name'!B81</f>
+        <f>'Grade Name'!B82</f>
         <v>SERVO 2T SUPREME (JFC) - 200X60ML - POU</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
       </c>
       <c r="E81" t="str">
-        <f>'Grade Name'!C81</f>
+        <f>'Grade Name'!C82</f>
         <v>Silver</v>
       </c>
       <c r="F81" t="s">
@@ -3302,21 +3278,21 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f>'Grade Name'!A82</f>
+        <f>'Grade Name'!A83</f>
         <v>7577234</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C82" t="str">
-        <f>'Grade Name'!B82</f>
+        <f>'Grade Name'!B83</f>
         <v>SERVO PREMIUM CF-4 15W-40-4X5L-HDPE</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
       <c r="E82" t="str">
-        <f>'Grade Name'!C82</f>
+        <f>'Grade Name'!C83</f>
         <v>Silver</v>
       </c>
       <c r="F82" t="s">
@@ -3329,21 +3305,21 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f>'Grade Name'!A83</f>
+        <f>'Grade Name'!A84</f>
         <v>2889156</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" t="str">
-        <f>'Grade Name'!B83</f>
+        <f>'Grade Name'!B84</f>
         <v>SERVO SCOOTOMATIC 4ST 10W-30-20 X 0.8 L</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
       </c>
       <c r="E83" t="str">
-        <f>'Grade Name'!C83</f>
+        <f>'Grade Name'!C84</f>
         <v>Silver</v>
       </c>
       <c r="F83" t="s">
@@ -3356,21 +3332,21 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f>'Grade Name'!A84</f>
+        <f>'Grade Name'!A85</f>
         <v>2900184</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C84" t="str">
-        <f>'Grade Name'!B84</f>
+        <f>'Grade Name'!B85</f>
         <v>SERVO 2T SUPREME-20 X 1 L</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <f>'Grade Name'!C84</f>
+        <f>'Grade Name'!C85</f>
         <v>Silver</v>
       </c>
       <c r="F84" t="s">
@@ -3383,21 +3359,21 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f>'Grade Name'!A85</f>
+        <f>'Grade Name'!A86</f>
         <v>2924229</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" t="str">
-        <f>'Grade Name'!B85</f>
+        <f>'Grade Name'!B86</f>
         <v>SERVO 4T - 20 X 1 L HDPE PROMO</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f>'Grade Name'!C85</f>
+        <f>'Grade Name'!C86</f>
         <v>Silver</v>
       </c>
       <c r="F85" t="s">
@@ -3410,21 +3386,21 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f>'Grade Name'!A86</f>
+        <f>'Grade Name'!A87</f>
         <v>7577184</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C86" t="str">
-        <f>'Grade Name'!B86</f>
+        <f>'Grade Name'!B87</f>
         <v>SERVO PREMIUM CF-4 15W-40-20X1L-HDPE</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f>'Grade Name'!C86</f>
+        <f>'Grade Name'!C87</f>
         <v>Silver</v>
       </c>
       <c r="F86" t="s">
@@ -3437,21 +3413,21 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f>'Grade Name'!A87</f>
+        <f>'Grade Name'!A88</f>
         <v>7489253</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C87" t="str">
-        <f>'Grade Name'!B87</f>
+        <f>'Grade Name'!B88</f>
         <v>SERVO PRIDE XL PLUS 15W40-15L PROMO</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f>'Grade Name'!C87</f>
+        <f>'Grade Name'!C88</f>
         <v>Silver</v>
       </c>
       <c r="F87" t="s">
@@ -3464,21 +3440,21 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f>'Grade Name'!A88</f>
+        <f>'Grade Name'!A89</f>
         <v>7577265</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C88" t="str">
-        <f>'Grade Name'!B88</f>
+        <f>'Grade Name'!B89</f>
         <v>SERVO PREMIUM CF 4 15W 40-20L BUC</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f>'Grade Name'!C88</f>
+        <f>'Grade Name'!C89</f>
         <v>Silver</v>
       </c>
       <c r="F88" t="s">
@@ -3491,21 +3467,21 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f>'Grade Name'!A89</f>
+        <f>'Grade Name'!A90</f>
         <v>4906234</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C89" t="str">
-        <f>'Grade Name'!B89</f>
+        <f>'Grade Name'!B90</f>
         <v>SERVO TRANSFLUID A-4X5L-HDPE</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <f>'Grade Name'!C89</f>
+        <f>'Grade Name'!C90</f>
         <v>Silver</v>
       </c>
       <c r="F89" t="s">
@@ -3518,21 +3494,21 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f>'Grade Name'!A90</f>
+        <f>'Grade Name'!A91</f>
         <v>7577401</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" t="str">
-        <f>'Grade Name'!B90</f>
+        <f>'Grade Name'!B91</f>
         <v>SERVO PREMIUM CF-4 15W-40 - 210L BRL</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f>'Grade Name'!C90</f>
+        <f>'Grade Name'!C91</f>
         <v>Silver</v>
       </c>
       <c r="F90" t="s">
@@ -3545,21 +3521,21 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f>'Grade Name'!A91</f>
+        <f>'Grade Name'!A92</f>
         <v>7489241</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C91" t="str">
-        <f>'Grade Name'!B91</f>
+        <f>'Grade Name'!B92</f>
         <v>SERVO PRIDE XL PLUS 15W40-10L PROMO</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f>'Grade Name'!C91</f>
+        <f>'Grade Name'!C92</f>
         <v>Silver</v>
       </c>
       <c r="F91" t="s">
@@ -3572,21 +3548,21 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f>'Grade Name'!A92</f>
+        <f>'Grade Name'!A93</f>
         <v>7489250</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C92" t="str">
-        <f>'Grade Name'!B92</f>
+        <f>'Grade Name'!B93</f>
         <v>SERVO PRIDE XL PLUS 15W40-7.5L PROMO</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f>'Grade Name'!C92</f>
+        <f>'Grade Name'!C93</f>
         <v>Silver</v>
       </c>
       <c r="F92" t="s">
@@ -3599,21 +3575,21 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f>'Grade Name'!A93</f>
+        <f>'Grade Name'!A94</f>
         <v>7485184</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C93" t="str">
-        <f>'Grade Name'!B93</f>
+        <f>'Grade Name'!B94</f>
         <v>SERVO SUPER 20W-40 MG-20 X 1 L</v>
       </c>
       <c r="D93" t="s">
         <v>2</v>
       </c>
       <c r="E93" t="str">
-        <f>'Grade Name'!C93</f>
+        <f>'Grade Name'!C94</f>
         <v>Silver</v>
       </c>
       <c r="F93" t="s">
@@ -3626,21 +3602,21 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f>'Grade Name'!A94</f>
+        <f>'Grade Name'!A95</f>
         <v>2502234</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C94" t="str">
-        <f>'Grade Name'!B94</f>
+        <f>'Grade Name'!B95</f>
         <v>SERVO GEAR HP 90 - 4x5L - HDPE</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <f>'Grade Name'!C94</f>
+        <f>'Grade Name'!C95</f>
         <v>Silver</v>
       </c>
       <c r="F94" t="s">
@@ -3653,21 +3629,21 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f>'Grade Name'!A95</f>
+        <f>'Grade Name'!A96</f>
         <v>2900125</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C95" t="str">
-        <f>'Grade Name'!B95</f>
+        <f>'Grade Name'!B96</f>
         <v>SERVO 2T SUPREME(JFC)-300x40ML - POU</v>
       </c>
       <c r="D95" t="s">
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f>'Grade Name'!C95</f>
+        <f>'Grade Name'!C96</f>
         <v>Silver</v>
       </c>
       <c r="F95" t="s">
@@ -3680,21 +3656,21 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f>'Grade Name'!A96</f>
+        <f>'Grade Name'!A97</f>
         <v>7511251</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C96" t="str">
-        <f>'Grade Name'!B96</f>
+        <f>'Grade Name'!B97</f>
         <v>SERVO GEAR SUPER 80W-90-7.5 L</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
       </c>
       <c r="E96" t="str">
-        <f>'Grade Name'!C96</f>
+        <f>'Grade Name'!C97</f>
         <v>Silver</v>
       </c>
       <c r="F96" t="s">
@@ -3707,21 +3683,21 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f>'Grade Name'!A97</f>
+        <f>'Grade Name'!A98</f>
         <v>7577242</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" t="str">
-        <f>'Grade Name'!B97</f>
+        <f>'Grade Name'!B98</f>
         <v>SERVO PREMIUM CF-4 15W-40-10L BUC</v>
       </c>
       <c r="D97" t="s">
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f>'Grade Name'!C97</f>
+        <f>'Grade Name'!C98</f>
         <v>Silver</v>
       </c>
       <c r="F97" t="s">
@@ -3734,21 +3710,21 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f>'Grade Name'!A98</f>
+        <f>'Grade Name'!A99</f>
         <v>7556184</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C98" t="str">
-        <f>'Grade Name'!B98</f>
+        <f>'Grade Name'!B99</f>
         <v>SERVO PRIDE TC 15W40 - 20X1L-HDPE</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f>'Grade Name'!C98</f>
+        <f>'Grade Name'!C99</f>
         <v>Silver</v>
       </c>
       <c r="F98" t="s">
@@ -3761,21 +3737,21 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f>'Grade Name'!A99</f>
+        <f>'Grade Name'!A100</f>
         <v>4906184</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C99" t="str">
-        <f>'Grade Name'!B99</f>
+        <f>'Grade Name'!B100</f>
         <v>SERVO TRANSFLUID A-20X1L-HDPE</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
       </c>
       <c r="E99" t="str">
-        <f>'Grade Name'!C99</f>
+        <f>'Grade Name'!C100</f>
         <v>Silver</v>
       </c>
       <c r="F99" t="s">
@@ -3788,21 +3764,21 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f>'Grade Name'!A100</f>
+        <f>'Grade Name'!A101</f>
         <v>1404184</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C100" t="str">
-        <f>'Grade Name'!B100</f>
+        <f>'Grade Name'!B101</f>
         <v>SERVO PRIDE 40 - 20x1L - HDPE</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <f>'Grade Name'!C100</f>
+        <f>'Grade Name'!C101</f>
         <v>Silver</v>
       </c>
       <c r="F100" t="s">
@@ -3815,21 +3791,21 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f>'Grade Name'!A101</f>
+        <f>'Grade Name'!A102</f>
         <v>1404234</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C101" t="str">
-        <f>'Grade Name'!B101</f>
+        <f>'Grade Name'!B102</f>
         <v>SERVO PRIDE 40 - 4x5L - HDPE</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
       </c>
       <c r="E101" t="str">
-        <f>'Grade Name'!C101</f>
+        <f>'Grade Name'!C102</f>
         <v>Silver</v>
       </c>
       <c r="F101" t="s">
@@ -3842,21 +3818,21 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f>'Grade Name'!A102</f>
+        <f>'Grade Name'!A103</f>
         <v>7577251</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C102" t="str">
-        <f>'Grade Name'!B102</f>
+        <f>'Grade Name'!B103</f>
         <v>SERVO PREMIUM CF-4 15W-40-7.5 L</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <f>'Grade Name'!C102</f>
+        <f>'Grade Name'!C103</f>
         <v>Silver</v>
       </c>
       <c r="F102" t="s">
@@ -3869,21 +3845,21 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f>'Grade Name'!A103</f>
+        <f>'Grade Name'!A104</f>
         <v>7511184</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C103" t="str">
-        <f>'Grade Name'!B103</f>
+        <f>'Grade Name'!B104</f>
         <v>SERVO GEAR SUPER 80W-90 - 20 X 1 L HDPE</v>
       </c>
       <c r="D103" t="s">
         <v>2</v>
       </c>
       <c r="E103" t="str">
-        <f>'Grade Name'!C103</f>
+        <f>'Grade Name'!C104</f>
         <v>Silver</v>
       </c>
       <c r="F103" t="s">
@@ -3896,21 +3872,21 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f>'Grade Name'!A104</f>
+        <f>'Grade Name'!A105</f>
         <v>2896150</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C104" t="str">
-        <f>'Grade Name'!B104</f>
+        <f>'Grade Name'!B105</f>
         <v>TRU4 KRAAFT-10 X 0.9 L</v>
       </c>
       <c r="D104" t="s">
         <v>2</v>
       </c>
       <c r="E104" t="str">
-        <f>'Grade Name'!C104</f>
+        <f>'Grade Name'!C105</f>
         <v>Silver</v>
       </c>
       <c r="F104" t="s">
@@ -3923,21 +3899,21 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f>'Grade Name'!A105</f>
+        <f>'Grade Name'!A106</f>
         <v>2896185</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C105" t="str">
-        <f>'Grade Name'!B105</f>
+        <f>'Grade Name'!B106</f>
         <v>TRU4 KRAAFT-10 X 1 L</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
       </c>
       <c r="E105" t="str">
-        <f>'Grade Name'!C105</f>
+        <f>'Grade Name'!C106</f>
         <v>Silver</v>
       </c>
       <c r="F105" t="s">
@@ -3950,21 +3926,21 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f>'Grade Name'!A106</f>
+        <f>'Grade Name'!A107</f>
         <v>7515265</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" t="str">
-        <f>'Grade Name'!B106</f>
+        <f>'Grade Name'!B107</f>
         <v>SERVO GEAR SUPER 85W-140-20 L BUC</v>
       </c>
       <c r="D106" t="s">
         <v>2</v>
       </c>
       <c r="E106" t="str">
-        <f>'Grade Name'!C106</f>
+        <f>'Grade Name'!C107</f>
         <v>Silver</v>
       </c>
       <c r="F106" t="s">
@@ -3977,21 +3953,21 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f>'Grade Name'!A107</f>
+        <f>'Grade Name'!A108</f>
         <v>7515401</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C107" t="str">
-        <f>'Grade Name'!B107</f>
+        <f>'Grade Name'!B108</f>
         <v>SERVO GEAR SUPER 85W-140-210L BRL</v>
       </c>
       <c r="D107" t="s">
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <f>'Grade Name'!C107</f>
+        <f>'Grade Name'!C108</f>
         <v>Silver</v>
       </c>
       <c r="F107" t="s">
@@ -4004,21 +3980,21 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f>'Grade Name'!A108</f>
+        <f>'Grade Name'!A109</f>
         <v>2900175</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C108" t="str">
-        <f>'Grade Name'!B108</f>
+        <f>'Grade Name'!B109</f>
         <v>SERVO 2T SUPREME-20X1/2 L</v>
       </c>
       <c r="D108" t="s">
         <v>2</v>
       </c>
       <c r="E108" t="str">
-        <f>'Grade Name'!C108</f>
+        <f>'Grade Name'!C109</f>
         <v>Silver</v>
       </c>
       <c r="F108" t="s">
@@ -4031,21 +4007,21 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f>'Grade Name'!A109</f>
+        <f>'Grade Name'!A110</f>
         <v>7485251</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C109" t="str">
-        <f>'Grade Name'!B109</f>
+        <f>'Grade Name'!B110</f>
         <v>SERVO SUPER 20W-40 MG-7.5 L</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
       </c>
       <c r="E109" t="str">
-        <f>'Grade Name'!C109</f>
+        <f>'Grade Name'!C110</f>
         <v>Silver</v>
       </c>
       <c r="F109" t="s">
@@ -4058,21 +4034,21 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f>'Grade Name'!A110</f>
+        <f>'Grade Name'!A111</f>
         <v>7651265</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C110" t="str">
-        <f>'Grade Name'!B110</f>
+        <f>'Grade Name'!B111</f>
         <v>SERVO AGROSPRAY T - 20 L BUC</v>
       </c>
       <c r="D110" t="s">
         <v>2</v>
       </c>
       <c r="E110" t="str">
-        <f>'Grade Name'!C110</f>
+        <f>'Grade Name'!C111</f>
         <v>Silver</v>
       </c>
       <c r="F110" t="s">
@@ -4085,21 +4061,21 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f>'Grade Name'!A111</f>
+        <f>'Grade Name'!A112</f>
         <v>7586265</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C111" t="str">
-        <f>'Grade Name'!B111</f>
+        <f>'Grade Name'!B112</f>
         <v>SERVO ORCHARD SPRAY OIL - 20 L BUC</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <f>'Grade Name'!C111</f>
+        <f>'Grade Name'!C112</f>
         <v>Silver</v>
       </c>
       <c r="F111" t="s">
@@ -4112,21 +4088,21 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f>'Grade Name'!A112</f>
+        <f>'Grade Name'!A113</f>
         <v>7511401</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C112" t="str">
-        <f>'Grade Name'!B112</f>
+        <f>'Grade Name'!B113</f>
         <v>SERVO GEAR SUPER 80W-90 - 210L BRL</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
       </c>
       <c r="E112" t="str">
-        <f>'Grade Name'!C112</f>
+        <f>'Grade Name'!C113</f>
         <v>Silver</v>
       </c>
       <c r="F112" t="s">
@@ -4139,21 +4115,21 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f>'Grade Name'!A113</f>
+        <f>'Grade Name'!A114</f>
         <v>7577174</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C113" t="str">
-        <f>'Grade Name'!B113</f>
+        <f>'Grade Name'!B114</f>
         <v>SERVO PREMIUM CF-4 15W-40-40X1/2L-HDPE</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
       </c>
       <c r="E113" t="str">
-        <f>'Grade Name'!C113</f>
+        <f>'Grade Name'!C114</f>
         <v>Silver</v>
       </c>
       <c r="F113" t="s">
@@ -4166,21 +4142,21 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f>'Grade Name'!A114</f>
+        <f>'Grade Name'!A115</f>
         <v>7556265</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C114" t="str">
-        <f>'Grade Name'!B114</f>
+        <f>'Grade Name'!B115</f>
         <v>SERVO PRIDE TC 15W40 - 20L BUC</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
       </c>
       <c r="E114" t="str">
-        <f>'Grade Name'!C114</f>
+        <f>'Grade Name'!C115</f>
         <v>Silver</v>
       </c>
       <c r="F114" t="s">
@@ -4193,21 +4169,21 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f>'Grade Name'!A115</f>
+        <f>'Grade Name'!A116</f>
         <v>7577256</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C115" t="str">
-        <f>'Grade Name'!B115</f>
+        <f>'Grade Name'!B116</f>
         <v>SERVO PREMIUM CF-4 15W-40-15 L</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <f>'Grade Name'!C115</f>
+        <f>'Grade Name'!C116</f>
         <v>Silver</v>
       </c>
       <c r="F115" t="s">
@@ -4220,21 +4196,21 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f>'Grade Name'!A116</f>
+        <f>'Grade Name'!A117</f>
         <v>7489234</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C116" t="str">
-        <f>'Grade Name'!B116</f>
+        <f>'Grade Name'!B117</f>
         <v>SERVO PRIDE XL PLUS 15W40-4x5L - HDPE</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
       </c>
       <c r="E116" t="str">
-        <f>'Grade Name'!C116</f>
+        <f>'Grade Name'!C117</f>
         <v>Silver</v>
       </c>
       <c r="F116" t="s">
@@ -4247,21 +4223,21 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f>'Grade Name'!A117</f>
+        <f>'Grade Name'!A118</f>
         <v>7515240</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C117" t="str">
-        <f>'Grade Name'!B117</f>
+        <f>'Grade Name'!B118</f>
         <v>SERVO GEAR SUPER 85W-140-4 X 5 L PROMO</v>
       </c>
       <c r="D117" t="s">
         <v>2</v>
       </c>
       <c r="E117" t="str">
-        <f>'Grade Name'!C117</f>
+        <f>'Grade Name'!C118</f>
         <v>Silver</v>
       </c>
       <c r="F117" t="s">
@@ -4274,21 +4250,21 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f>'Grade Name'!A118</f>
+        <f>'Grade Name'!A119</f>
         <v>7556253</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" t="str">
-        <f>'Grade Name'!B118</f>
+        <f>'Grade Name'!B119</f>
         <v>SERVO PRIDE TC 15W40-15L PROMO</v>
       </c>
       <c r="D118" t="s">
         <v>2</v>
       </c>
       <c r="E118" t="str">
-        <f>'Grade Name'!C118</f>
+        <f>'Grade Name'!C119</f>
         <v>Silver</v>
       </c>
       <c r="F118" t="s">
@@ -4301,21 +4277,21 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f>'Grade Name'!A119</f>
+        <f>'Grade Name'!A120</f>
         <v>7485401</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C119" t="str">
-        <f>'Grade Name'!B119</f>
+        <f>'Grade Name'!B120</f>
         <v>SERVO SUPER 20W-40 MG-210 L BRL</v>
       </c>
       <c r="D119" t="s">
         <v>2</v>
       </c>
       <c r="E119" t="str">
-        <f>'Grade Name'!C119</f>
+        <f>'Grade Name'!C120</f>
         <v>Silver</v>
       </c>
       <c r="F119" t="s">
@@ -4328,21 +4304,21 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f>'Grade Name'!A120</f>
+        <f>'Grade Name'!A121</f>
         <v>1404265</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C120" t="str">
-        <f>'Grade Name'!B120</f>
+        <f>'Grade Name'!B121</f>
         <v>SERVO PRIDE 40-20L BUC</v>
       </c>
       <c r="D120" t="s">
         <v>2</v>
       </c>
       <c r="E120" t="str">
-        <f>'Grade Name'!C120</f>
+        <f>'Grade Name'!C121</f>
         <v>Silver</v>
       </c>
       <c r="F120" t="s">
@@ -4355,21 +4331,21 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f>'Grade Name'!A121</f>
+        <f>'Grade Name'!A122</f>
         <v>7489265</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C121" t="str">
-        <f>'Grade Name'!B121</f>
+        <f>'Grade Name'!B122</f>
         <v>SERVO PRIDE XL PLUS 15W40-20 L</v>
       </c>
       <c r="D121" t="s">
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <f>'Grade Name'!C121</f>
+        <f>'Grade Name'!C122</f>
         <v>Silver</v>
       </c>
       <c r="F121" t="s">
@@ -4382,21 +4358,21 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f>'Grade Name'!A122</f>
+        <f>'Grade Name'!A123</f>
         <v>7556250</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C122" t="str">
-        <f>'Grade Name'!B122</f>
+        <f>'Grade Name'!B123</f>
         <v>SERVO PRIDE TC 15W40-7.5L PROMO</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
       </c>
       <c r="E122" t="str">
-        <f>'Grade Name'!C122</f>
+        <f>'Grade Name'!C123</f>
         <v>Silver</v>
       </c>
       <c r="F122" t="s">
@@ -4409,21 +4385,21 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f>'Grade Name'!A123</f>
+        <f>'Grade Name'!A124</f>
         <v>7489184</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C123" t="str">
-        <f>'Grade Name'!B123</f>
+        <f>'Grade Name'!B124</f>
         <v>SERVO PRIDE XL PLUS 15W40-20 X 1 L</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
       </c>
       <c r="E123" t="str">
-        <f>'Grade Name'!C123</f>
+        <f>'Grade Name'!C124</f>
         <v>Silver</v>
       </c>
       <c r="F123" t="s">
@@ -4436,21 +4412,21 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f>'Grade Name'!A124</f>
+        <f>'Grade Name'!A125</f>
         <v>7556203</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C124" t="str">
-        <f>'Grade Name'!B124</f>
+        <f>'Grade Name'!B125</f>
         <v>SERVO PRIDE TC 15W-40 - 4 X 3 L HDPE</v>
       </c>
       <c r="D124" t="s">
         <v>2</v>
       </c>
       <c r="E124" t="str">
-        <f>'Grade Name'!C124</f>
+        <f>'Grade Name'!C125</f>
         <v>Silver</v>
       </c>
       <c r="F124" t="s">
@@ -4463,21 +4439,21 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f>'Grade Name'!A125</f>
+        <f>'Grade Name'!A126</f>
         <v>2502401</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C125" t="str">
-        <f>'Grade Name'!B125</f>
+        <f>'Grade Name'!B126</f>
         <v>SERVO GEAR HP 90 - 210L BRL</v>
       </c>
       <c r="D125" t="s">
         <v>2</v>
       </c>
       <c r="E125" t="str">
-        <f>'Grade Name'!C125</f>
+        <f>'Grade Name'!C126</f>
         <v>Silver</v>
       </c>
       <c r="F125" t="s">
@@ -4490,21 +4466,21 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f>'Grade Name'!A126</f>
+        <f>'Grade Name'!A127</f>
         <v>7556241</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C126" t="str">
-        <f>'Grade Name'!B126</f>
+        <f>'Grade Name'!B127</f>
         <v>SERVO PRIDE TC 15W40-10L PROMO</v>
       </c>
       <c r="D126" t="s">
         <v>2</v>
       </c>
       <c r="E126" t="str">
-        <f>'Grade Name'!C126</f>
+        <f>'Grade Name'!C127</f>
         <v>Silver</v>
       </c>
       <c r="F126" t="s">
@@ -4517,21 +4493,21 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f>'Grade Name'!A127</f>
+        <f>'Grade Name'!A128</f>
         <v>4906175</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C127" t="str">
-        <f>'Grade Name'!B127</f>
+        <f>'Grade Name'!B128</f>
         <v>SERVO TRANSFLUID A-20X1/2 L</v>
       </c>
       <c r="D127" t="s">
         <v>2</v>
       </c>
       <c r="E127" t="str">
-        <f>'Grade Name'!C127</f>
+        <f>'Grade Name'!C128</f>
         <v>Silver</v>
       </c>
       <c r="F127" t="s">
@@ -4544,21 +4520,21 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f>'Grade Name'!A128</f>
+        <f>'Grade Name'!A129</f>
         <v>7511265</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C128" t="str">
-        <f>'Grade Name'!B128</f>
+        <f>'Grade Name'!B129</f>
         <v>SERVO GEAR SUPER 80W-90 - 20 L BUC</v>
       </c>
       <c r="D128" t="s">
         <v>2</v>
       </c>
       <c r="E128" t="str">
-        <f>'Grade Name'!C128</f>
+        <f>'Grade Name'!C129</f>
         <v>Silver</v>
       </c>
       <c r="F128" t="s">
@@ -4571,21 +4547,21 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f>'Grade Name'!A129</f>
+        <f>'Grade Name'!A130</f>
         <v>7515184</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C129" t="str">
-        <f>'Grade Name'!B129</f>
+        <f>'Grade Name'!B130</f>
         <v>SERVO GEAR SUPER 85W-140 - 20 X 1 L HDPE</v>
       </c>
       <c r="D129" t="s">
         <v>2</v>
       </c>
       <c r="E129" t="str">
-        <f>'Grade Name'!C129</f>
+        <f>'Grade Name'!C130</f>
         <v>Silver</v>
       </c>
       <c r="F129" t="s">
@@ -4598,21 +4574,21 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f>'Grade Name'!A130</f>
+        <f>'Grade Name'!A131</f>
         <v>7511234</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C130" t="str">
-        <f>'Grade Name'!B130</f>
+        <f>'Grade Name'!B131</f>
         <v>SERVO GEAR SUPER 80W-90 - 4 X 5 L HDPE</v>
       </c>
       <c r="D130" t="s">
         <v>2</v>
       </c>
       <c r="E130" t="str">
-        <f>'Grade Name'!C130</f>
+        <f>'Grade Name'!C131</f>
         <v>Silver</v>
       </c>
       <c r="F130" t="s">
@@ -4625,48 +4601,48 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f>'Grade Name'!A131</f>
+        <f>'Grade Name'!A132</f>
         <v>7511269</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C131" t="str">
-        <f>'Grade Name'!B131</f>
+        <f>'Grade Name'!B132</f>
         <v>SERVO GEAR SUPER 80W-90-20 L PROMO</v>
       </c>
       <c r="D131" t="s">
         <v>2</v>
       </c>
       <c r="E131" t="str">
-        <f>'Grade Name'!C131</f>
+        <f>'Grade Name'!C132</f>
         <v>Silver</v>
       </c>
       <c r="F131" t="s">
         <v>4</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G187" si="2">_xlfn.CONCAT("'",A131,"'",B131,C131,D131,E131,F131)</f>
+        <f t="shared" ref="G131:G182" si="2">_xlfn.CONCAT("'",A131,"'",B131,C131,D131,E131,F131)</f>
         <v>'7511269': { validName: 'SERVO GEAR SUPER 80W-90-20 L PROMO', grade: 'Silver' },</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f>'Grade Name'!A132</f>
+        <f>'Grade Name'!A133</f>
         <v>2900103</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C132" t="str">
-        <f>'Grade Name'!B132</f>
+        <f>'Grade Name'!B133</f>
         <v>SERVO 2T SUPREME-600 X 20 ML</v>
       </c>
       <c r="D132" t="s">
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <f>'Grade Name'!C132</f>
+        <f>'Grade Name'!C133</f>
         <v>Silver</v>
       </c>
       <c r="F132" t="s">
@@ -4679,21 +4655,21 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f>'Grade Name'!A133</f>
+        <f>'Grade Name'!A134</f>
         <v>2889155</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C133" t="str">
-        <f>'Grade Name'!B133</f>
+        <f>'Grade Name'!B134</f>
         <v>SERVO SCOOTOMTC 4ST 10W30-0.8 L</v>
       </c>
       <c r="D133" t="s">
         <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f>'Grade Name'!C133</f>
+        <f>'Grade Name'!C134</f>
         <v>Silver</v>
       </c>
       <c r="F133" t="s">
@@ -4706,21 +4682,21 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <f>'Grade Name'!A134</f>
+        <f>'Grade Name'!A135</f>
         <v>7515234</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C134" t="str">
-        <f>'Grade Name'!B134</f>
+        <f>'Grade Name'!B135</f>
         <v>SERVO GEAR SUPER 85W-140 - 4 X 5 L HDPE</v>
       </c>
       <c r="D134" t="s">
         <v>2</v>
       </c>
       <c r="E134" t="str">
-        <f>'Grade Name'!C134</f>
+        <f>'Grade Name'!C135</f>
         <v>Silver</v>
       </c>
       <c r="F134" t="s">
@@ -4733,21 +4709,21 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f>'Grade Name'!A135</f>
+        <f>'Grade Name'!A136</f>
         <v>7511240</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C135" t="str">
-        <f>'Grade Name'!B135</f>
+        <f>'Grade Name'!B136</f>
         <v>SERVO GEAR SUPER 80W-90-4 X 5 L PROMO</v>
       </c>
       <c r="D135" t="s">
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f>'Grade Name'!C135</f>
+        <f>'Grade Name'!C136</f>
         <v>Silver</v>
       </c>
       <c r="F135" t="s">
@@ -4760,21 +4736,21 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <f>'Grade Name'!A136</f>
+        <f>'Grade Name'!A137</f>
         <v>2924184</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C136" t="str">
-        <f>'Grade Name'!B136</f>
+        <f>'Grade Name'!B137</f>
         <v>SERVO 4T-20X1L-HDPE</v>
       </c>
       <c r="D136" t="s">
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f>'Grade Name'!C136</f>
+        <f>'Grade Name'!C137</f>
         <v>Silver</v>
       </c>
       <c r="F136" t="s">
@@ -4787,21 +4763,21 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f>'Grade Name'!A137</f>
+        <f>'Grade Name'!A138</f>
         <v>1404242</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C137" t="str">
-        <f>'Grade Name'!B137</f>
+        <f>'Grade Name'!B138</f>
         <v>SERVO PRIDE 40 - 10L BUC</v>
       </c>
       <c r="D137" t="s">
         <v>2</v>
       </c>
       <c r="E137" t="str">
-        <f>'Grade Name'!C137</f>
+        <f>'Grade Name'!C138</f>
         <v>Silver</v>
       </c>
       <c r="F137" t="s">
@@ -4814,21 +4790,21 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <f>'Grade Name'!A138</f>
+        <f>'Grade Name'!A139</f>
         <v>2502174</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C138" t="str">
-        <f>'Grade Name'!B138</f>
+        <f>'Grade Name'!B139</f>
         <v>SERVO GEAR HP 90-40X1/2L-HDPE</v>
       </c>
       <c r="D138" t="s">
         <v>2</v>
       </c>
       <c r="E138" t="str">
-        <f>'Grade Name'!C138</f>
+        <f>'Grade Name'!C139</f>
         <v>Silver</v>
       </c>
       <c r="F138" t="s">
@@ -4841,21 +4817,21 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f>'Grade Name'!A139</f>
+        <f>'Grade Name'!A140</f>
         <v>2900174</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C139" t="str">
-        <f>'Grade Name'!B139</f>
+        <f>'Grade Name'!B140</f>
         <v>SERVO 2T SUPREME-40X1/2L</v>
       </c>
       <c r="D139" t="s">
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <f>'Grade Name'!C139</f>
+        <f>'Grade Name'!C140</f>
         <v>Silver</v>
       </c>
       <c r="F139" t="s">
@@ -4868,21 +4844,21 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <f>'Grade Name'!A140</f>
+        <f>'Grade Name'!A141</f>
         <v>3057265</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C140" t="str">
-        <f>'Grade Name'!B140</f>
+        <f>'Grade Name'!B141</f>
         <v>SERVO EXCAVATOR TH 46 20 L</v>
       </c>
       <c r="D140" t="s">
         <v>2</v>
       </c>
       <c r="E140" t="str">
-        <f>'Grade Name'!C140</f>
+        <f>'Grade Name'!C141</f>
         <v>Silver</v>
       </c>
       <c r="F140" t="s">
@@ -4895,21 +4871,21 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f>'Grade Name'!A141</f>
+        <f>'Grade Name'!A142</f>
         <v>7489203</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C141" t="str">
-        <f>'Grade Name'!B141</f>
+        <f>'Grade Name'!B142</f>
         <v>SERVO PRIDE XL PLUS 15W40-4X3 L</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
       </c>
       <c r="E141" t="str">
-        <f>'Grade Name'!C141</f>
+        <f>'Grade Name'!C142</f>
         <v>Silver</v>
       </c>
       <c r="F141" t="s">
@@ -4922,21 +4898,21 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f>'Grade Name'!A142</f>
+        <f>'Grade Name'!A143</f>
         <v>7577240</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C142" t="str">
-        <f>'Grade Name'!B142</f>
+        <f>'Grade Name'!B143</f>
         <v>SERVO PREMIUM CF-4 15W-40-4x5L - PROMO</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
       </c>
       <c r="E142" t="str">
-        <f>'Grade Name'!C142</f>
+        <f>'Grade Name'!C143</f>
         <v>Silver</v>
       </c>
       <c r="F142" t="s">
@@ -4949,21 +4925,21 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f>'Grade Name'!A143</f>
+        <f>'Grade Name'!A144</f>
         <v>7485173</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C143" t="str">
-        <f>'Grade Name'!B143</f>
+        <f>'Grade Name'!B144</f>
         <v>SERVO SUPER 20W-40 MG-1/2 L</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <f>'Grade Name'!C143</f>
+        <f>'Grade Name'!C144</f>
         <v>Silver</v>
       </c>
       <c r="F143" t="s">
@@ -4976,21 +4952,21 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <f>'Grade Name'!A144</f>
+        <f>'Grade Name'!A145</f>
         <v>7485183</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C144" t="str">
-        <f>'Grade Name'!B144</f>
+        <f>'Grade Name'!B145</f>
         <v>SERVO SUPER 20W-40 MG-1 L</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <f>'Grade Name'!C144</f>
+        <f>'Grade Name'!C145</f>
         <v>Silver</v>
       </c>
       <c r="F144" t="s">
@@ -5003,21 +4979,21 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f>'Grade Name'!A145</f>
+        <f>'Grade Name'!A146</f>
         <v>7556234</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C145" t="str">
-        <f>'Grade Name'!B145</f>
+        <f>'Grade Name'!B146</f>
         <v>SERVO PRIDE TC 15W-40- 4 X 5L</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
       </c>
       <c r="E145" t="str">
-        <f>'Grade Name'!C145</f>
+        <f>'Grade Name'!C146</f>
         <v>Silver</v>
       </c>
       <c r="F145" t="s">
@@ -5030,21 +5006,21 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <f>'Grade Name'!A146</f>
+        <f>'Grade Name'!A147</f>
         <v>4950234</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C146" t="str">
-        <f>'Grade Name'!B146</f>
+        <f>'Grade Name'!B147</f>
         <v>SERVO OIB OIL-4x5L - HDPE</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
       </c>
       <c r="E146" t="str">
-        <f>'Grade Name'!C146</f>
+        <f>'Grade Name'!C147</f>
         <v>Silver</v>
       </c>
       <c r="F146" t="s">
@@ -5057,21 +5033,21 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <f>'Grade Name'!A147</f>
+        <f>'Grade Name'!A148</f>
         <v>7586242</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C147" t="str">
-        <f>'Grade Name'!B147</f>
+        <f>'Grade Name'!B148</f>
         <v>SERVO ORCHARD SPRAY OIL - 10 L BUC</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
       </c>
       <c r="E147" t="str">
-        <f>'Grade Name'!C147</f>
+        <f>'Grade Name'!C148</f>
         <v>Silver</v>
       </c>
       <c r="F147" t="s">
@@ -5084,21 +5060,21 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <f>'Grade Name'!A148</f>
+        <f>'Grade Name'!A149</f>
         <v>7472256</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C148" t="str">
-        <f>'Grade Name'!B148</f>
+        <f>'Grade Name'!B149</f>
         <v>SERVO FLT CF4 15W-40-15 L</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
       </c>
       <c r="E148" t="str">
-        <f>'Grade Name'!C148</f>
+        <f>'Grade Name'!C149</f>
         <v>Bronze</v>
       </c>
       <c r="F148" t="s">
@@ -5111,21 +5087,21 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f>'Grade Name'!A149</f>
+        <f>'Grade Name'!A150</f>
         <v>7427401</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C149" t="str">
-        <f>'Grade Name'!B149</f>
+        <f>'Grade Name'!B150</f>
         <v>ECSTAR PETROL 0W-20-210 L</v>
       </c>
       <c r="D149" t="s">
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <f>'Grade Name'!C149</f>
+        <f>'Grade Name'!C150</f>
         <v>Bronze</v>
       </c>
       <c r="F149" t="s">
@@ -5138,21 +5114,21 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <f>'Grade Name'!A150</f>
+        <f>'Grade Name'!A151</f>
         <v>2968213</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C150" t="str">
-        <f>'Grade Name'!B150</f>
+        <f>'Grade Name'!B151</f>
         <v>HY.SERVO ENGINE OIL 5W-30-4x3.5L</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <f>'Grade Name'!C150</f>
+        <f>'Grade Name'!C151</f>
         <v>Bronze</v>
       </c>
       <c r="F150" t="s">
@@ -5165,21 +5141,21 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <f>'Grade Name'!A151</f>
+        <f>'Grade Name'!A152</f>
         <v>7477203</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C151" t="str">
-        <f>'Grade Name'!B151</f>
+        <f>'Grade Name'!B152</f>
         <v>HY.SERVO PRM.EO SM 5W-30-4X3 L</v>
       </c>
       <c r="D151" t="s">
         <v>2</v>
       </c>
       <c r="E151" t="str">
-        <f>'Grade Name'!C151</f>
+        <f>'Grade Name'!C152</f>
         <v>Bronze</v>
       </c>
       <c r="F151" t="s">
@@ -5192,21 +5168,21 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <f>'Grade Name'!A152</f>
+        <f>'Grade Name'!A153</f>
         <v>7600203</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C152" t="str">
-        <f>'Grade Name'!B152</f>
+        <f>'Grade Name'!B153</f>
         <v>MGO 20W-40 - 4 X 3 L</v>
       </c>
       <c r="D152" t="s">
         <v>2</v>
       </c>
       <c r="E152" t="str">
-        <f>'Grade Name'!C152</f>
+        <f>'Grade Name'!C153</f>
         <v>Bronze</v>
       </c>
       <c r="F152" t="s">
@@ -5219,21 +5195,21 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <f>'Grade Name'!A153</f>
+        <f>'Grade Name'!A154</f>
         <v>7688213</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C153" t="str">
-        <f>'Grade Name'!B153</f>
+        <f>'Grade Name'!B154</f>
         <v>MGO 5W-30-4x3.5L HDPE</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
       </c>
       <c r="E153" t="str">
-        <f>'Grade Name'!C153</f>
+        <f>'Grade Name'!C154</f>
         <v>Bronze</v>
       </c>
       <c r="F153" t="s">
@@ -5246,21 +5222,21 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <f>'Grade Name'!A154</f>
+        <f>'Grade Name'!A155</f>
         <v>7688203</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C154" t="str">
-        <f>'Grade Name'!B154</f>
+        <f>'Grade Name'!B155</f>
         <v>MGO 5W-30-4 X 3 L</v>
       </c>
       <c r="D154" t="s">
         <v>2</v>
       </c>
       <c r="E154" t="str">
-        <f>'Grade Name'!C154</f>
+        <f>'Grade Name'!C155</f>
         <v>Bronze</v>
       </c>
       <c r="F154" t="s">
@@ -5273,21 +5249,21 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f>'Grade Name'!A155</f>
+        <f>'Grade Name'!A156</f>
         <v>7427213</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C155" t="str">
-        <f>'Grade Name'!B155</f>
+        <f>'Grade Name'!B156</f>
         <v>ECSTAR PETROL 0W-20-4 X 3.5 L</v>
       </c>
       <c r="D155" t="s">
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <f>'Grade Name'!C155</f>
+        <f>'Grade Name'!C156</f>
         <v>Bronze</v>
       </c>
       <c r="F155" t="s">
@@ -5300,21 +5276,21 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <f>'Grade Name'!A156</f>
+        <f>'Grade Name'!A157</f>
         <v>2557195</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C156" t="str">
-        <f>'Grade Name'!B156</f>
+        <f>'Grade Name'!B157</f>
         <v>HYUNDAI S.GEAR OIL 75W-85-4X2.5L-HDPE</v>
       </c>
       <c r="D156" t="s">
         <v>2</v>
       </c>
       <c r="E156" t="str">
-        <f>'Grade Name'!C156</f>
+        <f>'Grade Name'!C157</f>
         <v>Bronze</v>
       </c>
       <c r="F156" t="s">
@@ -5327,21 +5303,21 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f>'Grade Name'!A157</f>
+        <f>'Grade Name'!A158</f>
         <v>7600184</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C157" t="str">
-        <f>'Grade Name'!B157</f>
+        <f>'Grade Name'!B158</f>
         <v>MGO 20W-40 - 20 X 1 L</v>
       </c>
       <c r="D157" t="s">
         <v>2</v>
       </c>
       <c r="E157" t="str">
-        <f>'Grade Name'!C157</f>
+        <f>'Grade Name'!C158</f>
         <v>Bronze</v>
       </c>
       <c r="F157" t="s">
@@ -5354,21 +5330,21 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <f>'Grade Name'!A158</f>
+        <f>'Grade Name'!A159</f>
         <v>2540199</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C158" t="str">
-        <f>'Grade Name'!B158</f>
+        <f>'Grade Name'!B159</f>
         <v>MGGO 80W-90 - 4 X 2.1 L</v>
       </c>
       <c r="D158" t="s">
         <v>2</v>
       </c>
       <c r="E158" t="str">
-        <f>'Grade Name'!C158</f>
+        <f>'Grade Name'!C159</f>
         <v>Bronze</v>
       </c>
       <c r="F158" t="s">
@@ -5381,21 +5357,21 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <f>'Grade Name'!A159</f>
+        <f>'Grade Name'!A160</f>
         <v>7420213</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C159" t="str">
-        <f>'Grade Name'!B159</f>
+        <f>'Grade Name'!B160</f>
         <v>HY SERVO PETROL EO SN PLUS-4 X 3.5 L LUBE</v>
       </c>
       <c r="D159" t="s">
         <v>2</v>
       </c>
       <c r="E159" t="str">
-        <f>'Grade Name'!C159</f>
+        <f>'Grade Name'!C160</f>
         <v>Bronze</v>
       </c>
       <c r="F159" t="s">
@@ -5408,21 +5384,21 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <f>'Grade Name'!A160</f>
+        <f>'Grade Name'!A161</f>
         <v>7205222</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C160" t="str">
-        <f>'Grade Name'!B160</f>
+        <f>'Grade Name'!B161</f>
         <v>HYUNDAI SERVO SUPERIOR 0W30-4 X 4 L</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
       </c>
       <c r="E160" t="str">
-        <f>'Grade Name'!C160</f>
+        <f>'Grade Name'!C161</f>
         <v>Bronze</v>
       </c>
       <c r="F160" t="s">
@@ -5435,21 +5411,21 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f>'Grade Name'!A161</f>
+        <f>'Grade Name'!A162</f>
         <v>2933156</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C161" t="str">
-        <f>'Grade Name'!B161</f>
+        <f>'Grade Name'!B162</f>
         <v>SERVO HONDA SCOOTONXT-20 X 0.8 L</v>
       </c>
       <c r="D161" t="s">
         <v>2</v>
       </c>
       <c r="E161" t="str">
-        <f>'Grade Name'!C161</f>
+        <f>'Grade Name'!C162</f>
         <v>Bronze</v>
       </c>
       <c r="F161" t="s">
@@ -5462,21 +5438,21 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <f>'Grade Name'!A162</f>
+        <f>'Grade Name'!A163</f>
         <v>7638234</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C162" t="str">
-        <f>'Grade Name'!B162</f>
+        <f>'Grade Name'!B163</f>
         <v>HYUNDAI SERVO CRDi PREM.ENG.OIL 4X5L-HDP</v>
       </c>
       <c r="D162" t="s">
         <v>2</v>
       </c>
       <c r="E162" t="str">
-        <f>'Grade Name'!C162</f>
+        <f>'Grade Name'!C163</f>
         <v>Bronze</v>
       </c>
       <c r="F162" t="s">
@@ -5489,21 +5465,21 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f>'Grade Name'!A163</f>
+        <f>'Grade Name'!A164</f>
         <v>7470401</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C163" t="str">
-        <f>'Grade Name'!B163</f>
+        <f>'Grade Name'!B164</f>
         <v>S FLEET SUPREME CI4PLUS 15W-40-210 L LUBE</v>
       </c>
       <c r="D163" t="s">
         <v>2</v>
       </c>
       <c r="E163" t="str">
-        <f>'Grade Name'!C163</f>
+        <f>'Grade Name'!C164</f>
         <v>Bronze</v>
       </c>
       <c r="F163" t="s">
@@ -5516,21 +5492,21 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <f>'Grade Name'!A164</f>
+        <f>'Grade Name'!A165</f>
         <v>7421234</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C164" t="str">
-        <f>'Grade Name'!B164</f>
+        <f>'Grade Name'!B165</f>
         <v>HYUNDAI SERVO DEO ACEA C5-4 X 5 L LUBE</v>
       </c>
       <c r="D164" t="s">
         <v>2</v>
       </c>
       <c r="E164" t="str">
-        <f>'Grade Name'!C164</f>
+        <f>'Grade Name'!C165</f>
         <v>Bronze</v>
       </c>
       <c r="F164" t="s">
@@ -5543,21 +5519,21 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f>'Grade Name'!A165</f>
+        <f>'Grade Name'!A166</f>
         <v>7470256</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C165" t="str">
-        <f>'Grade Name'!B165</f>
+        <f>'Grade Name'!B166</f>
         <v>SERVO FLEET SUPREME CI4 PLUS 15W-40-15 L LUBE</v>
       </c>
       <c r="D165" t="s">
         <v>2</v>
       </c>
       <c r="E165" t="str">
-        <f>'Grade Name'!C165</f>
+        <f>'Grade Name'!C166</f>
         <v>Bronze</v>
       </c>
       <c r="F165" t="s">
@@ -5570,21 +5546,21 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <f>'Grade Name'!A166</f>
+        <f>'Grade Name'!A167</f>
         <v>7232184</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C166" t="str">
-        <f>'Grade Name'!B166</f>
+        <f>'Grade Name'!B167</f>
         <v>HYUNDAI SERVO COOLANT 50-20 X 1 L</v>
       </c>
       <c r="D166" t="s">
         <v>2</v>
       </c>
       <c r="E166" t="str">
-        <f>'Grade Name'!C166</f>
+        <f>'Grade Name'!C167</f>
         <v>Bronze</v>
       </c>
       <c r="F166" t="s">
@@ -5597,21 +5573,21 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f>'Grade Name'!A167</f>
+        <f>'Grade Name'!A168</f>
         <v>2918175</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C167" t="str">
-        <f>'Grade Name'!B167</f>
+        <f>'Grade Name'!B168</f>
         <v>HYUNDAI SERVO BRAKE OIL - 20x1/2L - HDPE</v>
       </c>
       <c r="D167" t="s">
         <v>2</v>
       </c>
       <c r="E167" t="str">
-        <f>'Grade Name'!C167</f>
+        <f>'Grade Name'!C168</f>
         <v>Bronze</v>
       </c>
       <c r="F167" t="s">
@@ -5624,21 +5600,21 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f>'Grade Name'!A168</f>
+        <f>'Grade Name'!A169</f>
         <v>3725213</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C168" t="str">
-        <f>'Grade Name'!B168</f>
+        <f>'Grade Name'!B169</f>
         <v>SERVO SUPER PUMP SO 40-4x3.5L HDPE</v>
       </c>
       <c r="D168" t="s">
         <v>2</v>
       </c>
       <c r="E168" t="str">
-        <f>'Grade Name'!C168</f>
+        <f>'Grade Name'!C169</f>
         <v>Bronze</v>
       </c>
       <c r="F168" t="s">
@@ -5651,21 +5627,21 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f>'Grade Name'!A169</f>
+        <f>'Grade Name'!A170</f>
         <v>7472184</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C169" t="str">
-        <f>'Grade Name'!B169</f>
+        <f>'Grade Name'!B170</f>
         <v>SERVO FLEET CF4 15W-40 - 20 X 1 L</v>
       </c>
       <c r="D169" t="s">
         <v>2</v>
       </c>
       <c r="E169" t="str">
-        <f>'Grade Name'!C169</f>
+        <f>'Grade Name'!C170</f>
         <v>Bronze</v>
       </c>
       <c r="F169" t="s">
@@ -5678,21 +5654,21 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <f>'Grade Name'!A170</f>
+        <f>'Grade Name'!A171</f>
         <v>7472234</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C170" t="str">
-        <f>'Grade Name'!B170</f>
+        <f>'Grade Name'!B171</f>
         <v>SERVO FLEET CF4 15W-40 - 4 X 5 L</v>
       </c>
       <c r="D170" t="s">
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <f>'Grade Name'!C170</f>
+        <f>'Grade Name'!C171</f>
         <v>Bronze</v>
       </c>
       <c r="F170" t="s">
@@ -5705,21 +5681,21 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <f>'Grade Name'!A171</f>
+        <f>'Grade Name'!A172</f>
         <v>7472203</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C171" t="str">
-        <f>'Grade Name'!B171</f>
+        <f>'Grade Name'!B172</f>
         <v>SERVO FLT CF4 15W-40-4 X 3 L</v>
       </c>
       <c r="D171" t="s">
         <v>2</v>
       </c>
       <c r="E171" t="str">
-        <f>'Grade Name'!C171</f>
+        <f>'Grade Name'!C172</f>
         <v>Bronze</v>
       </c>
       <c r="F171" t="s">
@@ -5732,21 +5708,21 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <f>'Grade Name'!A172</f>
+        <f>'Grade Name'!A173</f>
         <v>7688401</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C172" t="str">
-        <f>'Grade Name'!B172</f>
+        <f>'Grade Name'!B173</f>
         <v>MGO 5W-30-210 L BRL</v>
       </c>
       <c r="D172" t="s">
         <v>2</v>
       </c>
       <c r="E172" t="str">
-        <f>'Grade Name'!C172</f>
+        <f>'Grade Name'!C173</f>
         <v>Bronze</v>
       </c>
       <c r="F172" t="s">
@@ -5759,21 +5735,21 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f>'Grade Name'!A173</f>
+        <f>'Grade Name'!A174</f>
         <v>7670213</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C173" t="str">
-        <f>'Grade Name'!B173</f>
+        <f>'Grade Name'!B174</f>
         <v>MGDO 15W-40 - 4 X 3.5 L</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
       </c>
       <c r="E173" t="str">
-        <f>'Grade Name'!C173</f>
+        <f>'Grade Name'!C174</f>
         <v>Bronze</v>
       </c>
       <c r="F173" t="s">
@@ -5786,21 +5762,21 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
-        <f>'Grade Name'!A174</f>
+        <f>'Grade Name'!A175</f>
         <v>7420222</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C174" t="str">
-        <f>'Grade Name'!B174</f>
+        <f>'Grade Name'!B175</f>
         <v>HY SERVO PETROL EO SN PLUS-4 X 4 L LUBE</v>
       </c>
       <c r="D174" t="s">
         <v>2</v>
       </c>
       <c r="E174" t="str">
-        <f>'Grade Name'!C174</f>
+        <f>'Grade Name'!C175</f>
         <v>Bronze</v>
       </c>
       <c r="F174" t="s">
@@ -5813,21 +5789,21 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f>'Grade Name'!A175</f>
+        <f>'Grade Name'!A176</f>
         <v>7420401</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C175" t="str">
-        <f>'Grade Name'!B175</f>
+        <f>'Grade Name'!B176</f>
         <v>HY SERVO PETROL EO SN PLUS-210 L</v>
       </c>
       <c r="D175" t="s">
         <v>2</v>
       </c>
       <c r="E175" t="str">
-        <f>'Grade Name'!C175</f>
+        <f>'Grade Name'!C176</f>
         <v>Bronze</v>
       </c>
       <c r="F175" t="s">
@@ -5840,21 +5816,21 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <f>'Grade Name'!A176</f>
+        <f>'Grade Name'!A177</f>
         <v>2927152</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C176" t="str">
-        <f>'Grade Name'!B176</f>
+        <f>'Grade Name'!B177</f>
         <v>SERVO HONDA JOSH-20 X 0.9 L</v>
       </c>
       <c r="D176" t="s">
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <f>'Grade Name'!C176</f>
+        <f>'Grade Name'!C177</f>
         <v>Bronze</v>
       </c>
       <c r="F176" t="s">
@@ -5867,21 +5843,21 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
-        <f>'Grade Name'!A177</f>
+        <f>'Grade Name'!A178</f>
         <v>7472401</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C177" t="str">
-        <f>'Grade Name'!B177</f>
+        <f>'Grade Name'!B178</f>
         <v>SERVO FLT CF4 15W-40 - 210 L</v>
       </c>
       <c r="D177" t="s">
         <v>2</v>
       </c>
       <c r="E177" t="str">
-        <f>'Grade Name'!C177</f>
+        <f>'Grade Name'!C178</f>
         <v>Bronze</v>
       </c>
       <c r="F177" t="s">
@@ -5894,21 +5870,21 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
-        <f>'Grade Name'!A178</f>
+        <f>'Grade Name'!A179</f>
         <v>7427183</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C178" t="str">
-        <f>'Grade Name'!B178</f>
+        <f>'Grade Name'!B179</f>
         <v>ECSTAR PETROL 0W-20-1 L</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
       </c>
       <c r="E178" t="str">
-        <f>'Grade Name'!C178</f>
+        <f>'Grade Name'!C179</f>
         <v>Bronze</v>
       </c>
       <c r="F178" t="s">
@@ -5921,21 +5897,21 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
-        <f>'Grade Name'!A179</f>
+        <f>'Grade Name'!A180</f>
         <v>2953213</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C179" t="str">
-        <f>'Grade Name'!B179</f>
+        <f>'Grade Name'!B180</f>
         <v>HY.SERVO SYNTH PLUS 5W-30-4x3.5L HDPE</v>
       </c>
       <c r="D179" t="s">
         <v>2</v>
       </c>
       <c r="E179" t="str">
-        <f>'Grade Name'!C179</f>
+        <f>'Grade Name'!C180</f>
         <v>Bronze</v>
       </c>
       <c r="F179" t="s">
@@ -5948,21 +5924,21 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
-        <f>'Grade Name'!A180</f>
+        <f>'Grade Name'!A181</f>
         <v>7470184</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C180" t="str">
-        <f>'Grade Name'!B180</f>
+        <f>'Grade Name'!B181</f>
         <v>S FLEET SUPREME CI4PLUS 15W-40-20 X 1 L LUBE</v>
       </c>
       <c r="D180" t="s">
         <v>2</v>
       </c>
       <c r="E180" t="str">
-        <f>'Grade Name'!C180</f>
+        <f>'Grade Name'!C181</f>
         <v>Bronze</v>
       </c>
       <c r="F180" t="s">
@@ -5975,21 +5951,21 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
-        <f>'Grade Name'!A181</f>
+        <f>'Grade Name'!A182</f>
         <v>2927184</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C181" t="str">
-        <f>'Grade Name'!B181</f>
+        <f>'Grade Name'!B182</f>
         <v>SERVO HONDA JOSH-20 X 1 L</v>
       </c>
       <c r="D181" t="s">
         <v>2</v>
       </c>
       <c r="E181" t="str">
-        <f>'Grade Name'!C181</f>
+        <f>'Grade Name'!C182</f>
         <v>Bronze</v>
       </c>
       <c r="F181" t="s">
@@ -6002,21 +5978,21 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
-        <f>'Grade Name'!A182</f>
+        <f>'Grade Name'!A183</f>
         <v>7209213</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C182" t="str">
-        <f>'Grade Name'!B182</f>
+        <f>'Grade Name'!B183</f>
         <v>HY SERVO SYNTH 0W-30 SP/C3-4 X 3.5 L</v>
       </c>
       <c r="D182" t="s">
         <v>2</v>
       </c>
       <c r="E182" t="str">
-        <f>'Grade Name'!C182</f>
+        <f>'Grade Name'!C183</f>
         <v>Bronze</v>
       </c>
       <c r="F182" t="s">
@@ -6029,36 +6005,60 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
-        <f>'Grade Name'!A183</f>
+        <f>'Grade Name'!A184</f>
         <v>7208271</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C183" t="str">
-        <f>'Grade Name'!B183</f>
+        <f>'Grade Name'!B184</f>
         <v>SERVO SUPERIOR EO 0W20 SN PLUS-50 L</v>
       </c>
       <c r="D183" t="s">
         <v>2</v>
       </c>
       <c r="E183" t="str">
-        <f>'Grade Name'!C183</f>
+        <f>'Grade Name'!C184</f>
         <v>Bronze</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>83</v>
+      <c r="F183" t="s">
+        <v>4</v>
       </c>
       <c r="G183" t="str">
         <f>_xlfn.CONCAT("'",A183,"'",B183,C183,D183,E183,F183)</f>
-        <v>'7208271': { validName: 'SERVO SUPERIOR EO 0W20 SN PLUS-50 L', grade: 'Bronze }</v>
-      </c>
-      <c r="H183" t="s">
+        <v>'7208271': { validName: 'SERVO SUPERIOR EO 0W20 SN PLUS-50 L', grade: 'Bronze' },</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f>'Grade Name'!A32</f>
+        <v>2967204</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="str">
+        <f>'Grade Name'!B32</f>
+        <v>SERVO FUTURA G PLUS 5W-30-4 X 3 L PROMO</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" t="str">
+        <f>'Grade Name'!C32</f>
+        <v>Gold</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G184" t="str">
+        <f>_xlfn.CONCAT("'",A184,"'",B184,C184,D184,E184,F184)</f>
+        <v>'2967204': { validName: 'SERVO FUTURA G PLUS 5W-30-4 X 3 L PROMO', grade: 'Gold }</v>
+      </c>
+      <c r="H184" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B184" s="1"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
@@ -6115,17 +6115,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0873C9DF-390B-4BA8-BCB0-6C176D59D084}">
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D184"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="H159" sqref="H159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -6138,7 +6139,7 @@
       <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6152,7 +6153,7 @@
       <c r="C2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6166,7 +6167,7 @@
       <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6180,7 +6181,7 @@
       <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6194,7 +6195,7 @@
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6208,7 +6209,7 @@
       <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6222,7 +6223,7 @@
       <c r="C7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6236,7 +6237,7 @@
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6250,7 +6251,7 @@
       <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6264,7 +6265,7 @@
       <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6278,7 +6279,7 @@
       <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6292,7 +6293,7 @@
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6320,7 +6321,7 @@
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6334,7 +6335,7 @@
       <c r="C15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6348,7 +6349,7 @@
       <c r="C16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6362,7 +6363,7 @@
       <c r="C17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6376,7 +6377,7 @@
       <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6390,7 +6391,7 @@
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6404,7 +6405,7 @@
       <c r="C20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6418,7 +6419,7 @@
       <c r="C21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6432,7 +6433,7 @@
       <c r="C22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6446,7 +6447,7 @@
       <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6460,7 +6461,7 @@
       <c r="C24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6474,7 +6475,7 @@
       <c r="C25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6488,7 +6489,7 @@
       <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6502,7 +6503,7 @@
       <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6530,7 +6531,7 @@
       <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6544,7 +6545,7 @@
       <c r="C30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6558,58 +6559,58 @@
       <c r="C31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>2824184</v>
+        <v>2967204</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s">
-        <v>88</v>
+        <v>41</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>7211213</v>
+        <v>2824184</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" t="s">
-        <v>86</v>
+      <c r="D33" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>7330242</v>
+        <v>7211213</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>7330265</v>
+        <v>7330242</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>40</v>
@@ -6620,24 +6621,24 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>7701341</v>
+        <v>7330265</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>7705303</v>
+        <v>7701341</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>43</v>
@@ -6648,10 +6649,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>7705313</v>
+        <v>7705303</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>43</v>
@@ -6662,10 +6663,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>7705327</v>
+        <v>7705313</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>43</v>
@@ -6676,10 +6677,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>7705337</v>
+        <v>7705327</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>43</v>
@@ -6690,10 +6691,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>7705339</v>
+        <v>7705337</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>43</v>
@@ -6704,10 +6705,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>7705340</v>
+        <v>7705339</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>43</v>
@@ -6718,10 +6719,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>7705341</v>
+        <v>7705340</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>43</v>
@@ -6732,10 +6733,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>7727303</v>
+        <v>7705341</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>43</v>
@@ -6746,10 +6747,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>7727313</v>
+        <v>7727303</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>43</v>
@@ -6760,10 +6761,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>7727327</v>
+        <v>7727313</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>43</v>
@@ -6774,10 +6775,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>7727337</v>
+        <v>7727327</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>43</v>
@@ -6788,10 +6789,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>7727341</v>
+        <v>7727337</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>43</v>
@@ -6802,10 +6803,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>7849303</v>
+        <v>7727341</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>43</v>
@@ -6816,10 +6817,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>7849313</v>
+        <v>7849303</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>43</v>
@@ -6830,10 +6831,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>7849327</v>
+        <v>7849313</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>43</v>
@@ -6844,10 +6845,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>7849337</v>
+        <v>7849327</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>43</v>
@@ -6858,10 +6859,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>7849340</v>
+        <v>7849337</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>43</v>
@@ -6872,10 +6873,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>7849341</v>
+        <v>7849340</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>43</v>
@@ -6886,10 +6887,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>7849343</v>
+        <v>7849341</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
@@ -6900,10 +6901,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>7849344</v>
+        <v>7849343</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>43</v>
@@ -6914,10 +6915,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>7903303</v>
+        <v>7849344</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>43</v>
@@ -6928,10 +6929,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>7903313</v>
+        <v>7903303</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>43</v>
@@ -6942,10 +6943,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>7903327</v>
+        <v>7903313</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>43</v>
@@ -6956,10 +6957,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>7903337</v>
+        <v>7903327</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>43</v>
@@ -6970,10 +6971,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>7903339</v>
+        <v>7903337</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>43</v>
@@ -6984,10 +6985,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>7903343</v>
+        <v>7903339</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>43</v>
@@ -6998,10 +6999,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>7903344</v>
+        <v>7903343</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>43</v>
@@ -7012,10 +7013,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>7903341</v>
+        <v>7903344</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>43</v>
@@ -7026,10 +7027,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>7742341</v>
+        <v>7903341</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>43</v>
@@ -7039,11 +7040,11 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
-        <v>7903311</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>89</v>
+      <c r="A66" s="3">
+        <v>7742341</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>43</v>
@@ -7053,11 +7054,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="6">
-        <v>7705451</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>90</v>
+      <c r="A67" s="7">
+        <v>7903311</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>43</v>
@@ -7067,11 +7068,11 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>7742451</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>91</v>
+      <c r="A68" s="8">
+        <v>7705451</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>43</v>
@@ -7082,1616 +7083,1630 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>3040265</v>
+        <v>7742451</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>128</v>
+        <v>43</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>3006401</v>
+        <v>3040265</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>3006265</v>
+        <v>3006401</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>3006403</v>
+        <v>3006265</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>3006234</v>
+        <v>3006403</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>2502265</v>
+        <v>3006234</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>129</v>
+        <v>3</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>7485174</v>
+        <v>2502265</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>85</v>
+      <c r="D75" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>7485242</v>
+        <v>7485174</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>7485265</v>
+        <v>7485242</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>7485234</v>
+        <v>7485265</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>2931184</v>
+        <v>7485234</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>88</v>
+      <c r="D79" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>2502184</v>
+        <v>2931184</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>129</v>
+      <c r="D80" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>2900145</v>
+        <v>2502184</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>205</v>
+      <c r="D81" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>7577234</v>
+        <v>2900145</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>85</v>
+      <c r="D82" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>2889156</v>
+        <v>7577234</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>88</v>
+      <c r="D83" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>2900184</v>
+        <v>2889156</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>205</v>
+      <c r="D84" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>2924229</v>
+        <v>2900184</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D85" s="7" t="s">
-        <v>88</v>
+      <c r="D85" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>7577184</v>
+        <v>2924229</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>85</v>
+      <c r="D86" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>7489253</v>
+        <v>7577184</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>7577265</v>
+        <v>7489253</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>4906234</v>
+        <v>7577265</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>129</v>
+      <c r="D89" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>7577401</v>
+        <v>4906234</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>85</v>
+      <c r="D90" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>7489241</v>
+        <v>7577401</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>7489250</v>
+        <v>7489241</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>7485184</v>
+        <v>7489250</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>2502234</v>
+        <v>7485184</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>129</v>
+      <c r="D94" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>2900125</v>
+        <v>2502234</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>205</v>
+      <c r="D95" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>7511251</v>
+        <v>2900125</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D96" s="7" t="s">
-        <v>129</v>
+      <c r="D96" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>7577242</v>
+        <v>7511251</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D97" s="7" t="s">
-        <v>85</v>
+      <c r="D97" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>7556184</v>
+        <v>7577242</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>4906184</v>
+        <v>7556184</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D99" s="7" t="s">
-        <v>129</v>
+      <c r="D99" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>1404184</v>
+        <v>4906184</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D100" s="7" t="s">
-        <v>85</v>
+      <c r="D100" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>1404234</v>
+        <v>1404184</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>7577251</v>
+        <v>1404234</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>7511184</v>
+        <v>7577251</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D103" s="7" t="s">
-        <v>129</v>
+      <c r="D103" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>2896150</v>
+        <v>7511184</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D104" s="7" t="s">
-        <v>88</v>
+      <c r="D104" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>2896185</v>
+        <v>2896150</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>7515265</v>
+        <v>2896185</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D106" s="7" t="s">
-        <v>129</v>
+      <c r="D106" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>7515401</v>
+        <v>7515265</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>2900175</v>
+        <v>7515401</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="7" t="s">
-        <v>205</v>
+      <c r="D108" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>7485251</v>
+        <v>2900175</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D109" s="7" t="s">
-        <v>85</v>
+      <c r="D109" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>7651265</v>
+        <v>7485251</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D110" s="7" t="s">
-        <v>206</v>
+      <c r="D110" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>7586265</v>
+        <v>7651265</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D111" s="7" t="s">
-        <v>207</v>
+      <c r="D111" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>7511401</v>
+        <v>7586265</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>129</v>
+      <c r="D112" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>7577174</v>
+        <v>7511401</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>85</v>
+      <c r="D113" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>7556265</v>
+        <v>7577174</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>7577256</v>
+        <v>7556265</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>7489234</v>
+        <v>7577256</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>7515240</v>
+        <v>7489234</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>129</v>
+      <c r="D117" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>7556253</v>
+        <v>7515240</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>85</v>
+      <c r="D118" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>7485401</v>
+        <v>7556253</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>1404265</v>
+        <v>7485401</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>7489265</v>
+        <v>1404265</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>7556250</v>
+        <v>7489265</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>7489184</v>
+        <v>7556250</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>7556203</v>
+        <v>7489184</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>2502401</v>
+        <v>7556203</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>129</v>
+      <c r="D125" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>7556241</v>
+        <v>2502401</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D126" s="7" t="s">
-        <v>85</v>
+      <c r="D126" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>4906175</v>
+        <v>7556241</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>129</v>
+      <c r="D127" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>7511265</v>
+        <v>4906175</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>7515184</v>
+        <v>7511265</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>7511234</v>
+        <v>7515184</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>7511269</v>
+        <v>7511234</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>2900103</v>
+        <v>7511269</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D132" s="7" t="s">
-        <v>205</v>
+      <c r="D132" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>2889155</v>
+        <v>2900103</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D133" s="7" t="s">
-        <v>88</v>
+      <c r="D133" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>7515234</v>
+        <v>2889155</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D134" s="7" t="s">
-        <v>129</v>
+      <c r="D134" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>7511240</v>
+        <v>7515234</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>2924184</v>
+        <v>7511240</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D136" s="7" t="s">
-        <v>88</v>
+      <c r="D136" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>1404242</v>
+        <v>2924184</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D137" s="7" t="s">
-        <v>85</v>
+      <c r="D137" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>2502174</v>
+        <v>1404242</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D138" s="7" t="s">
-        <v>129</v>
+      <c r="D138" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>2900174</v>
+        <v>2502174</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D139" s="7" t="s">
-        <v>205</v>
+      <c r="D139" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>3057265</v>
+        <v>2900174</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D140" s="7" t="s">
-        <v>208</v>
+      <c r="D140" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>7489203</v>
+        <v>3057265</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D141" s="7" t="s">
-        <v>85</v>
+      <c r="D141" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>7577240</v>
+        <v>7489203</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>7485173</v>
+        <v>7577240</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>7485183</v>
+        <v>7485173</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>7556234</v>
+        <v>7485183</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>4950234</v>
+        <v>7556234</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>130</v>
+      <c r="D146" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>7586242</v>
+        <v>4950234</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D147" s="7" t="s">
-        <v>207</v>
+      <c r="D147" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>7472256</v>
+        <v>7586242</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>85</v>
+        <v>204</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>7427401</v>
+        <v>7472256</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C149" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D149" s="9" t="s">
-        <v>86</v>
+      <c r="D149" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>2968213</v>
+        <v>7427401</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C150" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>7477203</v>
+        <v>2968213</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C151" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>7600203</v>
+        <v>7477203</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C152" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>7688213</v>
+        <v>7600203</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C153" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C153" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>7688203</v>
+        <v>7688213</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C154" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>7427213</v>
+        <v>7688203</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C155" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C155" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>2557195</v>
+        <v>7427213</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C156" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D156" s="9" t="s">
-        <v>129</v>
+      <c r="D156" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>7600184</v>
+        <v>2557195</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C157" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D157" s="9" t="s">
-        <v>86</v>
+      <c r="D157" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>2540199</v>
+        <v>7600184</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C158" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C158" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D158" s="9" t="s">
-        <v>129</v>
+      <c r="D158" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>7420213</v>
+        <v>2540199</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C159" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D159" s="9" t="s">
-        <v>86</v>
+      <c r="D159" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>7205222</v>
+        <v>7420213</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C160" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>2933156</v>
+        <v>7205222</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C161" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>88</v>
+      <c r="D161" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>7638234</v>
+        <v>2933156</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C162" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>86</v>
+      <c r="D162" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <v>7470401</v>
+        <v>7638234</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C163" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D163" s="9" t="s">
-        <v>85</v>
+      <c r="D163" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <v>7421234</v>
+        <v>7470401</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C164" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D164" s="9" t="s">
-        <v>86</v>
+      <c r="D164" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>7470256</v>
+        <v>7421234</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C165" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D165" s="9" t="s">
-        <v>85</v>
+      <c r="D165" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>7232184</v>
+        <v>7470256</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C166" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D166" s="9" t="s">
-        <v>86</v>
+      <c r="D166" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>2918175</v>
+        <v>7232184</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C167" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>87</v>
+      <c r="D167" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>3725213</v>
+        <v>2918175</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C168" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D168" s="9" t="s">
-        <v>130</v>
+      <c r="D168" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>7472184</v>
+        <v>3725213</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C169" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>85</v>
+      <c r="D169" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>7472234</v>
+        <v>7472184</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C170" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C170" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>7472203</v>
+        <v>7472234</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C171" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C171" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>7688401</v>
+        <v>7472203</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C172" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>86</v>
+      <c r="D172" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>7670213</v>
+        <v>7688401</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C173" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>7420222</v>
+        <v>7670213</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C174" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>7420401</v>
+        <v>7420222</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C175" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C175" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>2927152</v>
+        <v>7420401</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C176" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C176" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D176" s="9" t="s">
-        <v>88</v>
+      <c r="D176" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>7472401</v>
+        <v>2927152</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C177" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C177" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>85</v>
+      <c r="D177" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>7427183</v>
+        <v>7472401</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C178" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C178" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>86</v>
+      <c r="D178" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>2953213</v>
+        <v>7427183</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C179" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C179" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>7470184</v>
+        <v>2953213</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C180" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C180" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>85</v>
+      <c r="D180" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>2927184</v>
+        <v>7470184</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C181" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C181" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>88</v>
+      <c r="D181" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>7209213</v>
+        <v>2927184</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C182" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>86</v>
+      <c r="D182" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
+        <v>7209213</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
         <v>7208271</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C184" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D184" s="6" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E183" xr:uid="{0873C9DF-390B-4BA8-BCB0-6C176D59D084}"/>
+  <autoFilter ref="A1:E184" xr:uid="{0873C9DF-390B-4BA8-BCB0-6C176D59D084}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
